--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2761119.474647033</v>
+        <v>2760732.426083777</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>248264.7300148726</v>
+        <v>248264.730014872</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736547</v>
+        <v>504792.0292736551</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>320.7578156252262</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>298.7773153645717</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
@@ -716,16 +716,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -753,10 +753,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>50.40340496236684</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>83.203720322192</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
@@ -798,10 +798,10 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>12.59665167322024</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>161.4765042532196</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>14.87282562165707</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>223.9872575436904</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
@@ -987,13 +987,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>53.98526983609721</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>198.7101451775341</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>156.6011627972193</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>243.4438153256982</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>126.0224895306994</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>33.22693955808352</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1218,19 +1218,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>31.74890147707598</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>74.25201978836913</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>58.0633291268696</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>12.59665167322035</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C11" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>255.6655596168399</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>249.4435719504928</v>
       </c>
       <c r="F11" t="n">
         <v>296.5795132747226</v>
       </c>
       <c r="G11" t="n">
-        <v>298.5127811721451</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>57.6588612950832</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92652010774083</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T11" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U11" t="n">
-        <v>48.28334964487442</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
         <v>245.4794153327662</v>
@@ -1455,7 +1455,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>124.2912761025077</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -1467,7 +1467,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>37.91997247481392</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.28964948932727</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C13" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D13" t="n">
-        <v>38.11100873230639</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E13" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F13" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G13" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513939</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S13" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T13" t="n">
         <v>117.4169981442692</v>
@@ -1591,7 +1591,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X13" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y13" t="n">
         <v>106.3846417114369</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>125.4399283803914</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
         <v>264.6842555723119</v>
@@ -1619,13 +1619,13 @@
         <v>296.5795132747226</v>
       </c>
       <c r="G14" t="n">
-        <v>298.5127811721451</v>
+        <v>44.87269158943759</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
-        <v>57.6588612950832</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774083</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T14" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W14" t="n">
         <v>245.4794153327662</v>
@@ -1673,7 +1673,7 @@
         <v>264.7796735655128</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1762713617116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1698,7 +1698,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>38.47629877891892</v>
       </c>
       <c r="H15" t="n">
         <v>98.93847887876893</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
-        <v>121.4930021353611</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
         <v>186.7982527956746</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.28964948932727</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C16" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D16" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E16" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F16" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G16" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H16" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I16" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S16" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T16" t="n">
         <v>117.4169981442692</v>
@@ -1828,7 +1828,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X16" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y16" t="n">
         <v>106.3846417114369</v>
@@ -1932,13 +1932,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>112.0804063284346</v>
       </c>
       <c r="G18" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>77.67202513757874</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>219.014077319547</v>
       </c>
       <c r="C20" t="n">
-        <v>207.0253942772286</v>
+        <v>207.0253942772287</v>
       </c>
       <c r="D20" t="n">
         <v>198.0066983217567</v>
@@ -2163,7 +2163,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>116.1837968985002</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
@@ -2178,7 +2178,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
-        <v>157.0197628136486</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U21" t="n">
         <v>216.3098444776729</v>
@@ -2412,7 +2412,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>9.973562680740899</v>
       </c>
       <c r="I24" t="n">
         <v>67.69846245683961</v>
@@ -2445,7 +2445,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>62.30657591935726</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
         <v>186.7982527956746</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14.4641349686015</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C26" t="n">
         <v>264.6842555723119</v>
@@ -2564,16 +2564,16 @@
         <v>277.4076971867455</v>
       </c>
       <c r="F26" t="n">
-        <v>296.5795132747227</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G26" t="n">
-        <v>298.5127811721452</v>
+        <v>194.7080123814889</v>
       </c>
       <c r="H26" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774086</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T26" t="n">
         <v>108.6851912980902</v>
@@ -2615,13 +2615,13 @@
         <v>220.1793158548093</v>
       </c>
       <c r="W26" t="n">
-        <v>245.4794153327663</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X26" t="n">
-        <v>264.7796735655129</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1762713617117</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>53.13297117133608</v>
+        <v>53.13297117133606</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.2896494893273</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472779</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230617</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E28" t="n">
-        <v>37.05875858808562</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F28" t="n">
-        <v>37.52568291627193</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761977</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031019</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513954</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355685</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214059</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2773,13 +2773,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W28" t="n">
-        <v>169.8646719595662</v>
+        <v>169.8646719595661</v>
       </c>
       <c r="X28" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.384641711437</v>
+        <v>106.3846417114369</v>
       </c>
     </row>
     <row r="29">
@@ -2795,10 +2795,10 @@
         <v>264.6842555723119</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E29" t="n">
-        <v>277.4076971867455</v>
+        <v>173.6029283960888</v>
       </c>
       <c r="F29" t="n">
         <v>296.5795132747226</v>
@@ -2807,10 +2807,10 @@
         <v>298.5127811721451</v>
       </c>
       <c r="H29" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>57.6588612950832</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>7.724414783468815</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T29" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U29" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V29" t="n">
         <v>220.1793158548093</v>
@@ -2886,7 +2886,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326538</v>
       </c>
       <c r="I30" t="n">
         <v>67.69846245683961</v>
@@ -2919,7 +2919,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
-        <v>136.7060008318836</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
         <v>186.7982527956746</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.28964948932727</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E31" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F31" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
@@ -3013,7 +3013,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X31" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y31" t="n">
         <v>106.3846417114369</v>
@@ -3032,7 +3032,7 @@
         <v>236.3785309329357</v>
       </c>
       <c r="D32" t="n">
-        <v>227.3598349774637</v>
+        <v>227.3598349774636</v>
       </c>
       <c r="E32" t="n">
         <v>249.1019725473692</v>
@@ -3047,7 +3047,7 @@
         <v>187.7571715110788</v>
       </c>
       <c r="I32" t="n">
-        <v>29.35313665570695</v>
+        <v>29.35313665570692</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,19 +3077,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.62079546836458</v>
+        <v>43.62079546836455</v>
       </c>
       <c r="T32" t="n">
-        <v>80.37946665871394</v>
+        <v>80.37946665871391</v>
       </c>
       <c r="U32" t="n">
         <v>110.6005927755609</v>
       </c>
       <c r="V32" t="n">
-        <v>191.8735912154331</v>
+        <v>191.873591215433</v>
       </c>
       <c r="W32" t="n">
-        <v>217.17369069339</v>
+        <v>217.1736906933899</v>
       </c>
       <c r="X32" t="n">
         <v>236.4739489261366</v>
@@ -3123,7 +3123,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326555</v>
       </c>
       <c r="I33" t="n">
         <v>67.69846245683961</v>
@@ -3156,7 +3156,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
-        <v>136.7060008318836</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
         <v>186.7982527956746</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>39.98392484995102</v>
+        <v>39.98392484995099</v>
       </c>
       <c r="C34" t="n">
-        <v>26.18391969535151</v>
+        <v>26.18391969535148</v>
       </c>
       <c r="D34" t="n">
-        <v>9.805284092929895</v>
+        <v>9.805284092929867</v>
       </c>
       <c r="E34" t="n">
-        <v>8.753033948709344</v>
+        <v>8.753033948709316</v>
       </c>
       <c r="F34" t="n">
-        <v>9.219958276895653</v>
+        <v>9.219958276895625</v>
       </c>
       <c r="G34" t="n">
-        <v>25.49466099824349</v>
+        <v>25.49466099824346</v>
       </c>
       <c r="H34" t="n">
-        <v>16.04302862093391</v>
+        <v>16.04302862093388</v>
       </c>
       <c r="I34" t="n">
-        <v>1.025123805763258</v>
+        <v>1.025123805763229</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.290673424180568</v>
+        <v>6.29067342418054</v>
       </c>
       <c r="S34" t="n">
-        <v>69.83677482276431</v>
+        <v>69.83677482276428</v>
       </c>
       <c r="T34" t="n">
-        <v>89.11127350489295</v>
+        <v>89.11127350489292</v>
       </c>
       <c r="U34" t="n">
         <v>142.5824469682061</v>
@@ -3247,13 +3247,13 @@
         <v>116.3920612495766</v>
       </c>
       <c r="W34" t="n">
-        <v>141.5589473201899</v>
+        <v>141.5589473201898</v>
       </c>
       <c r="X34" t="n">
-        <v>87.20404931599299</v>
+        <v>87.20404931599296</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.07891707206068</v>
+        <v>78.07891707206065</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3266,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C35" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D35" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E35" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F35" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G35" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H35" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I35" t="n">
-        <v>4.959961660835035</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.22762047349266</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T35" t="n">
-        <v>55.98629166384202</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U35" t="n">
-        <v>86.20741778068898</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V35" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W35" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X35" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y35" t="n">
         <v>223.4773717274634</v>
@@ -3363,7 +3363,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.59074985507911</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C37" t="n">
-        <v>1.790744700479593</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.101486003371576</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>45.4435998278924</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T37" t="n">
-        <v>64.71809851002104</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U37" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V37" t="n">
-        <v>91.9988862547047</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W37" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X37" t="n">
-        <v>62.81087432112108</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.68574207718876</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
     <row r="38">
@@ -3503,25 +3503,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C38" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D38" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E38" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F38" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G38" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H38" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I38" t="n">
-        <v>4.959961660835035</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.22762047349266</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T38" t="n">
-        <v>55.98629166384202</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U38" t="n">
-        <v>86.20741778068898</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V38" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W38" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X38" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y38" t="n">
         <v>223.4773717274634</v>
@@ -3597,7 +3597,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I39" t="n">
         <v>67.69846245683961</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.59074985507911</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C40" t="n">
-        <v>1.790744700479593</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.101486003371576</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>45.4435998278924</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T40" t="n">
-        <v>64.71809851002104</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U40" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V40" t="n">
-        <v>91.9988862547047</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W40" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X40" t="n">
-        <v>62.81087432112108</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.68574207718876</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>229.5454454620312</v>
+        <v>229.5454454620313</v>
       </c>
       <c r="C41" t="n">
-        <v>217.5567624197129</v>
+        <v>217.556762419713</v>
       </c>
       <c r="D41" t="n">
-        <v>208.5380664642409</v>
+        <v>208.538066464241</v>
       </c>
       <c r="E41" t="n">
-        <v>230.2802040341464</v>
+        <v>230.2802040341465</v>
       </c>
       <c r="F41" t="n">
-        <v>249.4520201221236</v>
+        <v>165.8809228973849</v>
       </c>
       <c r="G41" t="n">
-        <v>251.3852880195461</v>
+        <v>251.3852880195462</v>
       </c>
       <c r="H41" t="n">
-        <v>95.89567391560323</v>
+        <v>168.9354029978561</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>10.53136814248427</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.79902695514178</v>
+        <v>24.7990269551419</v>
       </c>
       <c r="T41" t="n">
-        <v>61.55769814549114</v>
+        <v>61.55769814549126</v>
       </c>
       <c r="U41" t="n">
-        <v>91.77882426233811</v>
+        <v>91.77882426233822</v>
       </c>
       <c r="V41" t="n">
-        <v>173.0518227022103</v>
+        <v>173.0518227022104</v>
       </c>
       <c r="W41" t="n">
-        <v>198.3519221801672</v>
+        <v>198.3519221801673</v>
       </c>
       <c r="X41" t="n">
-        <v>217.6521804129138</v>
+        <v>217.6521804129139</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.0487782091126</v>
+        <v>229.0487782091127</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
-        <v>224.3372187935198</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
         <v>195.9378182409833</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.16215633672823</v>
+        <v>21.16215633672834</v>
       </c>
       <c r="C43" t="n">
-        <v>7.362151182128713</v>
+        <v>7.362151182128827</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.672892485020697</v>
+        <v>6.67289248502081</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>51.01500630954152</v>
+        <v>51.01500630954163</v>
       </c>
       <c r="T43" t="n">
-        <v>70.28950499167016</v>
+        <v>70.28950499167027</v>
       </c>
       <c r="U43" t="n">
-        <v>123.7606784549833</v>
+        <v>123.7606784549834</v>
       </c>
       <c r="V43" t="n">
-        <v>97.57029273635382</v>
+        <v>97.57029273635393</v>
       </c>
       <c r="W43" t="n">
-        <v>122.7371788069671</v>
+        <v>122.7371788069672</v>
       </c>
       <c r="X43" t="n">
-        <v>68.3822808027702</v>
+        <v>68.38228080277031</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.25714855883788</v>
+        <v>59.257148558838</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>229.5454454620312</v>
+        <v>229.5454454620313</v>
       </c>
       <c r="C44" t="n">
-        <v>217.5567624197129</v>
+        <v>144.5170333374587</v>
       </c>
       <c r="D44" t="n">
-        <v>208.5380664642409</v>
+        <v>208.538066464241</v>
       </c>
       <c r="E44" t="n">
-        <v>230.2802040341464</v>
+        <v>230.2802040341465</v>
       </c>
       <c r="F44" t="n">
-        <v>249.4520201221236</v>
+        <v>249.4520201221237</v>
       </c>
       <c r="G44" t="n">
-        <v>167.8141907948084</v>
+        <v>251.3852880195462</v>
       </c>
       <c r="H44" t="n">
-        <v>168.935402997856</v>
+        <v>168.9354029978561</v>
       </c>
       <c r="I44" t="n">
-        <v>10.53136814248418</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.79902695514181</v>
+        <v>24.7990269551419</v>
       </c>
       <c r="T44" t="n">
-        <v>61.55769814549117</v>
+        <v>61.55769814549126</v>
       </c>
       <c r="U44" t="n">
-        <v>91.77882426233813</v>
+        <v>91.77882426233822</v>
       </c>
       <c r="V44" t="n">
-        <v>173.0518227022103</v>
+        <v>173.0518227022104</v>
       </c>
       <c r="W44" t="n">
-        <v>198.3519221801672</v>
+        <v>198.3519221801673</v>
       </c>
       <c r="X44" t="n">
-        <v>217.6521804129138</v>
+        <v>217.6521804129139</v>
       </c>
       <c r="Y44" t="n">
-        <v>229.0487782091126</v>
+        <v>229.0487782091127</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326566</v>
       </c>
       <c r="I45" t="n">
-        <v>53.13297117133636</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.16215633672826</v>
+        <v>21.16215633672834</v>
       </c>
       <c r="C46" t="n">
-        <v>7.362151182128741</v>
+        <v>7.362151182128827</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>6.672892485020725</v>
+        <v>6.67289248502081</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>51.01500630954155</v>
+        <v>51.01500630954163</v>
       </c>
       <c r="T46" t="n">
-        <v>70.28950499167019</v>
+        <v>70.28950499167027</v>
       </c>
       <c r="U46" t="n">
-        <v>123.7606784549833</v>
+        <v>123.7606784549834</v>
       </c>
       <c r="V46" t="n">
-        <v>97.57029273635385</v>
+        <v>97.57029273635393</v>
       </c>
       <c r="W46" t="n">
-        <v>122.7371788069671</v>
+        <v>122.7371788069672</v>
       </c>
       <c r="X46" t="n">
-        <v>68.38228080277023</v>
+        <v>68.38228080277031</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.25714855883791</v>
+        <v>59.257148558838</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375.9269390186161</v>
+        <v>536.6523989434331</v>
       </c>
       <c r="C2" t="n">
-        <v>375.9269390186161</v>
+        <v>536.6523989434331</v>
       </c>
       <c r="D2" t="n">
-        <v>375.9269390186161</v>
+        <v>536.6523989434331</v>
       </c>
       <c r="E2" t="n">
-        <v>375.9269390186161</v>
+        <v>536.6523989434331</v>
       </c>
       <c r="F2" t="n">
-        <v>51.92914545778153</v>
+        <v>526.5416122940076</v>
       </c>
       <c r="G2" t="n">
-        <v>39.86556295237357</v>
+        <v>514.4780297885995</v>
       </c>
       <c r="H2" t="n">
-        <v>39.86556295237357</v>
+        <v>212.6827617435775</v>
       </c>
       <c r="I2" t="n">
         <v>39.86556295237357</v>
       </c>
       <c r="J2" t="n">
-        <v>39.86556295237357</v>
+        <v>111.8641072251792</v>
       </c>
       <c r="K2" t="n">
-        <v>280.0059349971563</v>
+        <v>352.004479269962</v>
       </c>
       <c r="L2" t="n">
-        <v>627.8913080821026</v>
+        <v>699.8898523549083</v>
       </c>
       <c r="M2" t="n">
-        <v>1021.13047433519</v>
+        <v>1093.129018607996</v>
       </c>
       <c r="N2" t="n">
-        <v>1399.461833022906</v>
+        <v>1471.460377295712</v>
       </c>
       <c r="O2" t="n">
-        <v>1704.46641749574</v>
+        <v>1765.121251162625</v>
       </c>
       <c r="P2" t="n">
-        <v>1932.623313951793</v>
+        <v>1993.278147618678</v>
       </c>
       <c r="Q2" t="n">
         <v>1993.278147618678</v>
       </c>
       <c r="R2" t="n">
-        <v>1993.278147618678</v>
+        <v>1902.639861114532</v>
       </c>
       <c r="S2" t="n">
-        <v>1993.278147618678</v>
+        <v>1715.410885744885</v>
       </c>
       <c r="T2" t="n">
-        <v>1768.91920134969</v>
+        <v>1491.051939475897</v>
       </c>
       <c r="U2" t="n">
-        <v>1514.033865063684</v>
+        <v>1236.166603189891</v>
       </c>
       <c r="V2" t="n">
-        <v>1514.033865063684</v>
+        <v>899.1873290858321</v>
       </c>
       <c r="W2" t="n">
-        <v>1151.498934921285</v>
+        <v>536.6523989434331</v>
       </c>
       <c r="X2" t="n">
-        <v>769.4687944427781</v>
+        <v>536.6523989434331</v>
       </c>
       <c r="Y2" t="n">
-        <v>375.9269390186161</v>
+        <v>536.6523989434331</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680.4018289913276</v>
+        <v>754.6805584663668</v>
       </c>
       <c r="C3" t="n">
-        <v>518.6981562322824</v>
+        <v>592.9768857073216</v>
       </c>
       <c r="D3" t="n">
-        <v>518.6981562322824</v>
+        <v>454.1382486975336</v>
       </c>
       <c r="E3" t="n">
-        <v>371.6701462891536</v>
+        <v>454.1382486975336</v>
       </c>
       <c r="F3" t="n">
-        <v>236.976348239028</v>
+        <v>319.444450647408</v>
       </c>
       <c r="G3" t="n">
-        <v>108.2478482623126</v>
+        <v>190.7159506706925</v>
       </c>
       <c r="H3" t="n">
-        <v>108.2478482623126</v>
+        <v>90.77809321739058</v>
       </c>
       <c r="I3" t="n">
         <v>39.86556295237357</v>
@@ -4410,19 +4410,19 @@
         <v>100.1197094854797</v>
       </c>
       <c r="K3" t="n">
-        <v>100.1197094854797</v>
+        <v>329.6102620456684</v>
       </c>
       <c r="L3" t="n">
-        <v>465.9415546555954</v>
+        <v>695.4321072157841</v>
       </c>
       <c r="M3" t="n">
-        <v>647.874306237613</v>
+        <v>695.4321072157841</v>
       </c>
       <c r="N3" t="n">
-        <v>1141.210647773236</v>
+        <v>1188.768448751407</v>
       </c>
       <c r="O3" t="n">
-        <v>1533.410598557387</v>
+        <v>1580.968399535558</v>
       </c>
       <c r="P3" t="n">
         <v>1835.506517833084</v>
@@ -4431,28 +4431,28 @@
         <v>1993.278147618678</v>
       </c>
       <c r="R3" t="n">
-        <v>1993.278147618678</v>
+        <v>1933.493878713624</v>
       </c>
       <c r="S3" t="n">
-        <v>1909.23398567707</v>
+        <v>1780.694391726364</v>
       </c>
       <c r="T3" t="n">
-        <v>1720.548881843055</v>
+        <v>1592.009287892349</v>
       </c>
       <c r="U3" t="n">
-        <v>1502.054089441365</v>
+        <v>1373.51449549066</v>
       </c>
       <c r="V3" t="n">
-        <v>1273.658466889699</v>
+        <v>1145.118872938993</v>
       </c>
       <c r="W3" t="n">
-        <v>1032.34259812301</v>
+        <v>1145.118872938993</v>
       </c>
       <c r="X3" t="n">
-        <v>1032.34259812301</v>
+        <v>947.201884816788</v>
       </c>
       <c r="Y3" t="n">
-        <v>839.8212717725885</v>
+        <v>754.6805584663668</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>259.295446758927</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="C4" t="n">
-        <v>259.295446758927</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="D4" t="n">
-        <v>259.295446758927</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="E4" t="n">
-        <v>259.295446758927</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="F4" t="n">
-        <v>259.295446758927</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="G4" t="n">
-        <v>259.295446758927</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="H4" t="n">
-        <v>99.92280153820084</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="I4" t="n">
-        <v>99.92280153820084</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="J4" t="n">
         <v>39.86556295237357</v>
@@ -4507,31 +4507,31 @@
         <v>571.924808198306</v>
       </c>
       <c r="Q4" t="n">
-        <v>571.924808198306</v>
+        <v>559.2009176192956</v>
       </c>
       <c r="R4" t="n">
-        <v>422.4030268126842</v>
+        <v>559.2009176192956</v>
       </c>
       <c r="S4" t="n">
-        <v>422.4030268126842</v>
+        <v>559.2009176192956</v>
       </c>
       <c r="T4" t="n">
-        <v>259.295446758927</v>
+        <v>326.0219644349744</v>
       </c>
       <c r="U4" t="n">
-        <v>259.295446758927</v>
+        <v>326.0219644349744</v>
       </c>
       <c r="V4" t="n">
-        <v>259.295446758927</v>
+        <v>326.0219644349744</v>
       </c>
       <c r="W4" t="n">
-        <v>259.295446758927</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="X4" t="n">
-        <v>259.295446758927</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="Y4" t="n">
-        <v>259.295446758927</v>
+        <v>39.86556295237357</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248.713076997773</v>
+        <v>789.646926403791</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.713076997773</v>
+        <v>789.646926403791</v>
       </c>
       <c r="D5" t="n">
-        <v>875.8891122249963</v>
+        <v>789.646926403791</v>
       </c>
       <c r="E5" t="n">
-        <v>481.1033923311032</v>
+        <v>394.8612065098979</v>
       </c>
       <c r="F5" t="n">
-        <v>66.95220164127352</v>
+        <v>384.7504198604723</v>
       </c>
       <c r="G5" t="n">
-        <v>54.88861913586555</v>
+        <v>372.6868373550643</v>
       </c>
       <c r="H5" t="n">
-        <v>54.88861913586555</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="I5" t="n">
         <v>39.86556295237357</v>
@@ -4568,19 +4568,19 @@
         <v>39.86556295237357</v>
       </c>
       <c r="K5" t="n">
-        <v>246.2285149775043</v>
+        <v>280.0059349971563</v>
       </c>
       <c r="L5" t="n">
-        <v>594.1138880624505</v>
+        <v>627.8913080821026</v>
       </c>
       <c r="M5" t="n">
-        <v>987.3530543155384</v>
+        <v>1021.13047433519</v>
       </c>
       <c r="N5" t="n">
-        <v>1365.684413003254</v>
+        <v>1399.461833022906</v>
       </c>
       <c r="O5" t="n">
-        <v>1670.688997476088</v>
+        <v>1704.46641749574</v>
       </c>
       <c r="P5" t="n">
         <v>1898.845893932141</v>
@@ -4589,28 +4589,28 @@
         <v>1993.278147618678</v>
       </c>
       <c r="R5" t="n">
-        <v>1993.278147618678</v>
+        <v>1902.639861114532</v>
       </c>
       <c r="S5" t="n">
-        <v>1993.278147618678</v>
+        <v>1715.410885744885</v>
       </c>
       <c r="T5" t="n">
-        <v>1993.278147618678</v>
+        <v>1715.410885744885</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.278147618678</v>
+        <v>1715.410885744885</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.278147618678</v>
+        <v>1378.431611640827</v>
       </c>
       <c r="W5" t="n">
-        <v>1630.743217476279</v>
+        <v>1015.896681498428</v>
       </c>
       <c r="X5" t="n">
-        <v>1248.713076997773</v>
+        <v>1015.896681498428</v>
       </c>
       <c r="Y5" t="n">
-        <v>1248.713076997773</v>
+        <v>789.646926403791</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>919.1783234544176</v>
+        <v>583.2289011579753</v>
       </c>
       <c r="C6" t="n">
-        <v>757.4746506953724</v>
+        <v>421.52522839893</v>
       </c>
       <c r="D6" t="n">
-        <v>618.6360136855844</v>
+        <v>421.52522839893</v>
       </c>
       <c r="E6" t="n">
-        <v>471.6080037424556</v>
+        <v>274.4972184558012</v>
       </c>
       <c r="F6" t="n">
-        <v>336.9142056923299</v>
+        <v>139.8034204056755</v>
       </c>
       <c r="G6" t="n">
-        <v>208.1857057156145</v>
+        <v>139.8034204056755</v>
       </c>
       <c r="H6" t="n">
-        <v>108.2478482623126</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="I6" t="n">
         <v>39.86556295237357</v>
       </c>
       <c r="J6" t="n">
-        <v>100.1197094854797</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="K6" t="n">
-        <v>189.2190583414219</v>
+        <v>269.3561155125622</v>
       </c>
       <c r="L6" t="n">
-        <v>555.0409035115375</v>
+        <v>635.1779606826778</v>
       </c>
       <c r="M6" t="n">
-        <v>1040.074257021764</v>
+        <v>1120.211314192904</v>
       </c>
       <c r="N6" t="n">
-        <v>1533.410598557387</v>
+        <v>1141.210647773236</v>
       </c>
       <c r="O6" t="n">
         <v>1533.410598557387</v>
@@ -4668,28 +4668,28 @@
         <v>1993.278147618678</v>
       </c>
       <c r="R6" t="n">
-        <v>1993.278147618678</v>
+        <v>1933.493878713624</v>
       </c>
       <c r="S6" t="n">
-        <v>1993.278147618678</v>
+        <v>1780.694391726364</v>
       </c>
       <c r="T6" t="n">
-        <v>1993.278147618678</v>
+        <v>1780.694391726364</v>
       </c>
       <c r="U6" t="n">
-        <v>1938.747572026661</v>
+        <v>1562.199599324674</v>
       </c>
       <c r="V6" t="n">
-        <v>1710.351949474995</v>
+        <v>1333.803976773008</v>
       </c>
       <c r="W6" t="n">
-        <v>1469.036080708305</v>
+        <v>1133.086658411863</v>
       </c>
       <c r="X6" t="n">
-        <v>1271.1190925861</v>
+        <v>935.1696702896573</v>
       </c>
       <c r="Y6" t="n">
-        <v>1078.597766235679</v>
+        <v>742.6483439392362</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>413.7418154738421</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="C7" t="n">
-        <v>244.1258459355223</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="D7" t="n">
-        <v>244.1258459355223</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="E7" t="n">
-        <v>244.1258459355223</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="F7" t="n">
-        <v>244.1258459355223</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="G7" t="n">
-        <v>244.1258459355223</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="H7" t="n">
-        <v>244.1258459355223</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="I7" t="n">
-        <v>99.92280153820084</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="J7" t="n">
         <v>39.86556295237357</v>
@@ -4756,19 +4756,19 @@
         <v>571.924808198306</v>
       </c>
       <c r="U7" t="n">
-        <v>413.7418154738421</v>
+        <v>571.924808198306</v>
       </c>
       <c r="V7" t="n">
-        <v>413.7418154738421</v>
+        <v>326.0219644349744</v>
       </c>
       <c r="W7" t="n">
-        <v>413.7418154738421</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="X7" t="n">
-        <v>413.7418154738421</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="Y7" t="n">
-        <v>413.7418154738421</v>
+        <v>39.86556295237357</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>842.4081272567616</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="C8" t="n">
-        <v>460.474368589569</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="D8" t="n">
-        <v>87.65040381679256</v>
+        <v>458.984345149926</v>
       </c>
       <c r="E8" t="n">
-        <v>87.65040381679256</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F8" t="n">
         <v>54.08783860660719</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>1598.98659691718</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U8" t="n">
-        <v>1598.98659691718</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V8" t="n">
-        <v>1598.98659691718</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="W8" t="n">
-        <v>1236.451666774781</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="X8" t="n">
-        <v>1236.451666774781</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="Y8" t="n">
-        <v>1236.451666774781</v>
+        <v>959.1037538931058</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>521.6641732647531</v>
+        <v>614.6793913469587</v>
       </c>
       <c r="C9" t="n">
-        <v>359.9605005057078</v>
+        <v>452.9757185879134</v>
       </c>
       <c r="D9" t="n">
-        <v>221.1218634959199</v>
+        <v>314.1370815781255</v>
       </c>
       <c r="E9" t="n">
-        <v>74.09385355279113</v>
+        <v>314.1370815781255</v>
       </c>
       <c r="F9" t="n">
-        <v>42.02425610119923</v>
+        <v>314.1370815781255</v>
       </c>
       <c r="G9" t="n">
-        <v>42.02425610119923</v>
+        <v>185.4085816014101</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L9" t="n">
-        <v>252.8463055811703</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M9" t="n">
-        <v>737.8796590913968</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>1856.59919822192</v>
       </c>
       <c r="P9" t="n">
         <v>1943.441175274367</v>
@@ -4905,28 +4905,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1948.413318072701</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T9" t="n">
-        <v>1759.728214238687</v>
+        <v>1852.743432320892</v>
       </c>
       <c r="U9" t="n">
-        <v>1541.233421836997</v>
+        <v>1634.248639919202</v>
       </c>
       <c r="V9" t="n">
-        <v>1312.837799285331</v>
+        <v>1405.853017367536</v>
       </c>
       <c r="W9" t="n">
-        <v>1071.521930518641</v>
+        <v>1164.537148600846</v>
       </c>
       <c r="X9" t="n">
-        <v>873.6049423964351</v>
+        <v>966.6201604786407</v>
       </c>
       <c r="Y9" t="n">
-        <v>681.083616046014</v>
+        <v>774.0988341282196</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>515.4336739462533</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>363.4246597075721</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
         <v>42.02425610119923</v>
@@ -4990,22 +4990,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1452.762807161175</v>
+        <v>859.353491767738</v>
       </c>
       <c r="C11" t="n">
-        <v>1185.404973249749</v>
+        <v>859.353491767738</v>
       </c>
       <c r="D11" t="n">
-        <v>927.1569332327385</v>
+        <v>601.105451750728</v>
       </c>
       <c r="E11" t="n">
-        <v>927.1569332327385</v>
+        <v>349.1422477603311</v>
       </c>
       <c r="F11" t="n">
-        <v>627.5816672986753</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="G11" t="n">
-        <v>326.0536055086297</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="H11" t="n">
-        <v>107.8082558617054</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J11" t="n">
         <v>233.8613899522002</v>
@@ -5048,22 +5048,22 @@
         <v>821.8871350819293</v>
       </c>
       <c r="M11" t="n">
-        <v>1224.370991053586</v>
+        <v>1215.126301335017</v>
       </c>
       <c r="N11" t="n">
-        <v>1714.998213594429</v>
+        <v>1593.457660022733</v>
       </c>
       <c r="O11" t="n">
-        <v>2020.002798067263</v>
+        <v>2010.758108348693</v>
       </c>
       <c r="P11" t="n">
-        <v>2248.159694523316</v>
+        <v>2351.210868657873</v>
       </c>
       <c r="Q11" t="n">
-        <v>2454.88781206298</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R11" t="n">
-        <v>2478.349091313392</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S11" t="n">
         <v>2405.696040699513</v>
@@ -5072,19 +5072,19 @@
         <v>2295.913019186291</v>
       </c>
       <c r="U11" t="n">
-        <v>2247.141958938943</v>
+        <v>2155.603607656051</v>
       </c>
       <c r="V11" t="n">
-        <v>2247.141958938943</v>
+        <v>1933.200258307759</v>
       </c>
       <c r="W11" t="n">
-        <v>1999.182953552311</v>
+        <v>1685.241252921126</v>
       </c>
       <c r="X11" t="n">
-        <v>1731.72873782957</v>
+        <v>1417.787037198386</v>
       </c>
       <c r="Y11" t="n">
-        <v>1452.762807161175</v>
+        <v>1138.821106529991</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>898.8004595181849</v>
+        <v>839.0161906131307</v>
       </c>
       <c r="C12" t="n">
-        <v>737.0967867591396</v>
+        <v>677.3125178540854</v>
       </c>
       <c r="D12" t="n">
-        <v>598.2581497493517</v>
+        <v>538.4738808442975</v>
       </c>
       <c r="E12" t="n">
-        <v>451.2301398062229</v>
+        <v>412.9271373064109</v>
       </c>
       <c r="F12" t="n">
-        <v>316.5363417560973</v>
+        <v>278.2333392562853</v>
       </c>
       <c r="G12" t="n">
-        <v>187.8078417793818</v>
+        <v>149.5048392795698</v>
       </c>
       <c r="H12" t="n">
-        <v>87.86998432607989</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I12" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J12" t="n">
         <v>109.821128359374</v>
@@ -5133,37 +5133,37 @@
         <v>1701.432525723027</v>
       </c>
       <c r="O12" t="n">
-        <v>2093.632476507178</v>
+        <v>2018.481542252101</v>
       </c>
       <c r="P12" t="n">
-        <v>2395.728395782875</v>
+        <v>2320.577461527799</v>
       </c>
       <c r="Q12" t="n">
-        <v>2478.349091313392</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R12" t="n">
-        <v>2478.349091313392</v>
+        <v>2418.564822408338</v>
       </c>
       <c r="S12" t="n">
-        <v>2325.549604326133</v>
+        <v>2265.765335421079</v>
       </c>
       <c r="T12" t="n">
-        <v>2136.864500492118</v>
+        <v>2077.080231587064</v>
       </c>
       <c r="U12" t="n">
-        <v>1918.369708090428</v>
+        <v>1858.585439185374</v>
       </c>
       <c r="V12" t="n">
-        <v>1689.974085538762</v>
+        <v>1630.189816633708</v>
       </c>
       <c r="W12" t="n">
-        <v>1448.658216772072</v>
+        <v>1388.873947867018</v>
       </c>
       <c r="X12" t="n">
-        <v>1250.741228649867</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y12" t="n">
-        <v>1058.219902299446</v>
+        <v>998.4356333943916</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347.2084787095619</v>
+        <v>347.2084787095615</v>
       </c>
       <c r="C13" t="n">
-        <v>292.1684339270086</v>
+        <v>292.1684339270083</v>
       </c>
       <c r="D13" t="n">
-        <v>253.6724655105376</v>
+        <v>253.6724655105374</v>
       </c>
       <c r="E13" t="n">
-        <v>216.2393760276228</v>
+        <v>216.2393760276226</v>
       </c>
       <c r="F13" t="n">
-        <v>178.3346458091663</v>
+        <v>178.3346458091661</v>
       </c>
       <c r="G13" t="n">
-        <v>123.9908219327827</v>
+        <v>123.9908219327826</v>
       </c>
       <c r="H13" t="n">
-        <v>79.19410146782293</v>
+        <v>79.1941014678228</v>
       </c>
       <c r="I13" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J13" t="n">
         <v>103.0007461414252</v>
       </c>
       <c r="K13" t="n">
-        <v>248.9007977391952</v>
+        <v>248.9007977391954</v>
       </c>
       <c r="L13" t="n">
-        <v>461.8037409925814</v>
+        <v>461.8037409925815</v>
       </c>
       <c r="M13" t="n">
-        <v>692.0931109733096</v>
+        <v>692.0931109733099</v>
       </c>
       <c r="N13" t="n">
-        <v>922.8113165760369</v>
+        <v>922.8113165760368</v>
       </c>
       <c r="O13" t="n">
         <v>1133.570826924853</v>
       </c>
       <c r="P13" t="n">
-        <v>1308.835174506118</v>
+        <v>1308.835174506117</v>
       </c>
       <c r="Q13" t="n">
         <v>1383.360590105725</v>
       </c>
       <c r="R13" t="n">
-        <v>1348.41473347587</v>
+        <v>1348.414733475869</v>
       </c>
       <c r="S13" t="n">
-        <v>1249.280895635324</v>
+        <v>1249.280895635323</v>
       </c>
       <c r="T13" t="n">
-        <v>1130.677867206769</v>
+        <v>1130.677867206768</v>
       </c>
       <c r="U13" t="n">
-        <v>958.063552451635</v>
+        <v>958.0635524516348</v>
       </c>
       <c r="V13" t="n">
-        <v>811.904172765824</v>
+        <v>811.9041727658238</v>
       </c>
       <c r="W13" t="n">
-        <v>640.3236960389895</v>
+        <v>640.3236960389893</v>
       </c>
       <c r="X13" t="n">
-        <v>523.6471566901316</v>
+        <v>523.6471566901314</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.1879226381752</v>
+        <v>416.1879226381749</v>
       </c>
     </row>
     <row r="14">
@@ -5252,55 +5252,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1234.517457514251</v>
+        <v>1138.319422436133</v>
       </c>
       <c r="C14" t="n">
-        <v>967.1596236028242</v>
+        <v>870.9615885247067</v>
       </c>
       <c r="D14" t="n">
-        <v>708.9115835858144</v>
+        <v>612.7135485076975</v>
       </c>
       <c r="E14" t="n">
-        <v>708.9115835858144</v>
+        <v>612.7135485076975</v>
       </c>
       <c r="F14" t="n">
-        <v>409.3363176517511</v>
+        <v>313.1382825736342</v>
       </c>
       <c r="G14" t="n">
-        <v>107.8082558617054</v>
+        <v>267.8123314731922</v>
       </c>
       <c r="H14" t="n">
-        <v>107.8082558617054</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J14" t="n">
         <v>233.8613899522002</v>
       </c>
       <c r="K14" t="n">
-        <v>586.2976258501096</v>
+        <v>474.001761996983</v>
       </c>
       <c r="L14" t="n">
-        <v>934.1829989350558</v>
+        <v>821.8871350819293</v>
       </c>
       <c r="M14" t="n">
         <v>1327.422165188144</v>
       </c>
       <c r="N14" t="n">
-        <v>1818.049387728986</v>
+        <v>1705.75352387586</v>
       </c>
       <c r="O14" t="n">
-        <v>2123.05397220182</v>
+        <v>2043.464077317676</v>
       </c>
       <c r="P14" t="n">
-        <v>2360.455558376443</v>
+        <v>2271.620973773729</v>
       </c>
       <c r="Q14" t="n">
-        <v>2454.88781206298</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R14" t="n">
-        <v>2478.349091313392</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S14" t="n">
         <v>2405.696040699513</v>
@@ -5312,16 +5312,16 @@
         <v>2155.603607656051</v>
       </c>
       <c r="V14" t="n">
-        <v>2155.603607656051</v>
+        <v>1933.200258307759</v>
       </c>
       <c r="W14" t="n">
-        <v>1907.644602269418</v>
+        <v>1685.241252921126</v>
       </c>
       <c r="X14" t="n">
-        <v>1640.190386546678</v>
+        <v>1417.787037198386</v>
       </c>
       <c r="Y14" t="n">
-        <v>1361.224455878282</v>
+        <v>1417.787037198386</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>928.8797423283119</v>
+        <v>839.0161906131307</v>
       </c>
       <c r="C15" t="n">
-        <v>767.1760695692666</v>
+        <v>677.3125178540854</v>
       </c>
       <c r="D15" t="n">
-        <v>628.3374325594787</v>
+        <v>538.4738808442975</v>
       </c>
       <c r="E15" t="n">
-        <v>481.3094226163499</v>
+        <v>391.4458709011687</v>
       </c>
       <c r="F15" t="n">
-        <v>346.6156245662243</v>
+        <v>256.7520728510431</v>
       </c>
       <c r="G15" t="n">
         <v>217.8871245895088</v>
@@ -5352,55 +5352,55 @@
         <v>117.9492671362069</v>
       </c>
       <c r="I15" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J15" t="n">
-        <v>49.56698182626785</v>
+        <v>109.821128359374</v>
       </c>
       <c r="K15" t="n">
-        <v>279.0575343864565</v>
+        <v>339.3116809195627</v>
       </c>
       <c r="L15" t="n">
-        <v>644.8793795565721</v>
+        <v>705.1335260896783</v>
       </c>
       <c r="M15" t="n">
-        <v>1129.912733066798</v>
+        <v>1190.166879599905</v>
       </c>
       <c r="N15" t="n">
-        <v>1641.178379189921</v>
+        <v>1626.281591467951</v>
       </c>
       <c r="O15" t="n">
-        <v>2033.378329974071</v>
+        <v>2018.481542252101</v>
       </c>
       <c r="P15" t="n">
-        <v>2335.474249249769</v>
+        <v>2320.577461527799</v>
       </c>
       <c r="Q15" t="n">
-        <v>2478.349091313392</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R15" t="n">
-        <v>2478.349091313392</v>
+        <v>2418.564822408338</v>
       </c>
       <c r="S15" t="n">
-        <v>2355.62888713626</v>
+        <v>2265.765335421079</v>
       </c>
       <c r="T15" t="n">
-        <v>2166.943783302245</v>
+        <v>2077.080231587064</v>
       </c>
       <c r="U15" t="n">
-        <v>1948.448990900555</v>
+        <v>1858.585439185374</v>
       </c>
       <c r="V15" t="n">
-        <v>1720.053368348889</v>
+        <v>1630.189816633708</v>
       </c>
       <c r="W15" t="n">
-        <v>1478.737499582199</v>
+        <v>1388.873947867018</v>
       </c>
       <c r="X15" t="n">
-        <v>1280.820511459994</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y15" t="n">
-        <v>1088.299185109573</v>
+        <v>998.4356333943916</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>347.2084787095613</v>
+        <v>347.2084787095611</v>
       </c>
       <c r="C16" t="n">
-        <v>292.1684339270081</v>
+        <v>292.1684339270078</v>
       </c>
       <c r="D16" t="n">
-        <v>253.6724655105372</v>
+        <v>253.6724655105369</v>
       </c>
       <c r="E16" t="n">
-        <v>216.2393760276225</v>
+        <v>216.2393760276222</v>
       </c>
       <c r="F16" t="n">
-        <v>178.334645809166</v>
+        <v>178.3346458091657</v>
       </c>
       <c r="G16" t="n">
-        <v>123.9908219327823</v>
+        <v>123.9908219327824</v>
       </c>
       <c r="H16" t="n">
-        <v>79.19410146782286</v>
+        <v>79.19410146782295</v>
       </c>
       <c r="I16" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J16" t="n">
-        <v>103.0007461414252</v>
+        <v>103.0007461414249</v>
       </c>
       <c r="K16" t="n">
-        <v>248.9007977391953</v>
+        <v>248.9007977391945</v>
       </c>
       <c r="L16" t="n">
-        <v>461.8037409925811</v>
+        <v>461.8037409925805</v>
       </c>
       <c r="M16" t="n">
-        <v>692.0931109733093</v>
+        <v>692.093110973309</v>
       </c>
       <c r="N16" t="n">
-        <v>922.8113165760361</v>
+        <v>922.8113165760359</v>
       </c>
       <c r="O16" t="n">
         <v>1133.570826924852</v>
@@ -5455,31 +5455,31 @@
         <v>1308.835174506117</v>
       </c>
       <c r="Q16" t="n">
-        <v>1383.360590105725</v>
+        <v>1383.360590105724</v>
       </c>
       <c r="R16" t="n">
-        <v>1348.414733475869</v>
+        <v>1348.414733475868</v>
       </c>
       <c r="S16" t="n">
-        <v>1249.280895635323</v>
+        <v>1249.280895635322</v>
       </c>
       <c r="T16" t="n">
         <v>1130.677867206768</v>
       </c>
       <c r="U16" t="n">
-        <v>958.0635524516347</v>
+        <v>958.0635524516341</v>
       </c>
       <c r="V16" t="n">
-        <v>811.9041727658237</v>
+        <v>811.9041727658232</v>
       </c>
       <c r="W16" t="n">
-        <v>640.3236960389892</v>
+        <v>640.3236960389888</v>
       </c>
       <c r="X16" t="n">
-        <v>523.6471566901314</v>
+        <v>523.6471566901311</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.1879226381748</v>
+        <v>416.1879226381745</v>
       </c>
     </row>
     <row r="17">
@@ -5492,43 +5492,43 @@
         <v>1325.283684051238</v>
       </c>
       <c r="C17" t="n">
-        <v>1116.16712417525</v>
+        <v>1116.167124175249</v>
       </c>
       <c r="D17" t="n">
-        <v>916.1603581936773</v>
+        <v>916.160358193677</v>
       </c>
       <c r="E17" t="n">
-        <v>694.1918370909882</v>
+        <v>694.1918370909879</v>
       </c>
       <c r="F17" t="n">
-        <v>452.8578451923624</v>
+        <v>452.8578451923622</v>
       </c>
       <c r="G17" t="n">
         <v>209.5710574377546</v>
       </c>
       <c r="H17" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J17" t="n">
         <v>121.5655260990735</v>
       </c>
       <c r="K17" t="n">
-        <v>481.3777702044147</v>
+        <v>361.7058981438563</v>
       </c>
       <c r="L17" t="n">
-        <v>998.6412798246199</v>
+        <v>709.5912712288025</v>
       </c>
       <c r="M17" t="n">
-        <v>1391.880446077708</v>
+        <v>1272.20857401715</v>
       </c>
       <c r="N17" t="n">
-        <v>1770.211804765423</v>
+        <v>1770.211804765424</v>
       </c>
       <c r="O17" t="n">
-        <v>2075.216389238257</v>
+        <v>2075.216389238258</v>
       </c>
       <c r="P17" t="n">
         <v>2303.373285694311</v>
@@ -5537,7 +5537,7 @@
         <v>2397.805539380848</v>
       </c>
       <c r="R17" t="n">
-        <v>2478.349091313392</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S17" t="n">
         <v>2463.937314734951</v>
@@ -5549,10 +5549,10 @@
         <v>2330.327429762363</v>
       </c>
       <c r="V17" t="n">
-        <v>2166.165354449508</v>
+        <v>2166.165354449509</v>
       </c>
       <c r="W17" t="n">
-        <v>1976.447623098313</v>
+        <v>1976.447623098314</v>
       </c>
       <c r="X17" t="n">
         <v>1767.234681411011</v>
@@ -5568,58 +5568,58 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>839.0161906131302</v>
+        <v>839.0161906131307</v>
       </c>
       <c r="C18" t="n">
-        <v>677.3125178540849</v>
+        <v>677.3125178540854</v>
       </c>
       <c r="D18" t="n">
-        <v>538.473880844297</v>
+        <v>538.4738808442975</v>
       </c>
       <c r="E18" t="n">
-        <v>391.4458709011682</v>
+        <v>391.4458709011687</v>
       </c>
       <c r="F18" t="n">
-        <v>256.7520728510426</v>
+        <v>278.2333392562853</v>
       </c>
       <c r="G18" t="n">
-        <v>128.0235728743272</v>
+        <v>149.5048392795698</v>
       </c>
       <c r="H18" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I18" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J18" t="n">
-        <v>49.56698182626785</v>
+        <v>109.821128359374</v>
       </c>
       <c r="K18" t="n">
-        <v>279.0575343864565</v>
+        <v>339.3116809195627</v>
       </c>
       <c r="L18" t="n">
-        <v>644.8793795565721</v>
+        <v>705.1335260896783</v>
       </c>
       <c r="M18" t="n">
-        <v>1129.912733066798</v>
+        <v>1190.166879599905</v>
       </c>
       <c r="N18" t="n">
-        <v>1641.178379189921</v>
+        <v>1701.432525723027</v>
       </c>
       <c r="O18" t="n">
-        <v>2033.378329974071</v>
+        <v>2093.632476507178</v>
       </c>
       <c r="P18" t="n">
-        <v>2320.577461527798</v>
+        <v>2395.728395782875</v>
       </c>
       <c r="Q18" t="n">
-        <v>2478.349091313392</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R18" t="n">
         <v>2418.564822408338</v>
       </c>
       <c r="S18" t="n">
-        <v>2265.765335421078</v>
+        <v>2265.765335421079</v>
       </c>
       <c r="T18" t="n">
         <v>2077.080231587064</v>
@@ -5634,10 +5634,10 @@
         <v>1388.873947867018</v>
       </c>
       <c r="X18" t="n">
-        <v>1190.956959744812</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4356333943912</v>
+        <v>998.4356333943916</v>
       </c>
     </row>
     <row r="19">
@@ -5647,70 +5647,70 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="C19" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="D19" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="E19" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="F19" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="G19" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="H19" t="n">
-        <v>52.78379906314241</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I19" t="n">
-        <v>52.78379906314241</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J19" t="n">
-        <v>52.78379906314241</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K19" t="n">
-        <v>86.38798680778582</v>
+        <v>83.17116957091127</v>
       </c>
       <c r="L19" t="n">
-        <v>186.9950662080453</v>
+        <v>183.7782489711708</v>
       </c>
       <c r="M19" t="n">
-        <v>304.9885723356471</v>
+        <v>301.7717550987725</v>
       </c>
       <c r="N19" t="n">
-        <v>423.4109140852474</v>
+        <v>420.1940968483729</v>
       </c>
       <c r="O19" t="n">
-        <v>521.8745605809371</v>
+        <v>518.6577433440626</v>
       </c>
       <c r="P19" t="n">
-        <v>584.8430443090749</v>
+        <v>584.843044309075</v>
       </c>
       <c r="Q19" t="n">
-        <v>584.8430443090749</v>
+        <v>584.843044309075</v>
       </c>
       <c r="R19" t="n">
-        <v>584.8430443090749</v>
+        <v>584.843044309075</v>
       </c>
       <c r="S19" t="n">
-        <v>543.9504805039664</v>
+        <v>543.9504805039666</v>
       </c>
       <c r="T19" t="n">
-        <v>483.5887261108492</v>
+        <v>483.5887261108493</v>
       </c>
       <c r="U19" t="n">
-        <v>369.2156853911531</v>
+        <v>369.2156853911532</v>
       </c>
       <c r="V19" t="n">
-        <v>281.2975797407797</v>
+        <v>281.2975797407798</v>
       </c>
       <c r="W19" t="n">
-        <v>167.9583770493828</v>
+        <v>167.9583770493829</v>
       </c>
       <c r="X19" t="n">
         <v>109.5231117359626</v>
@@ -5729,13 +5729,13 @@
         <v>1325.283684051238</v>
       </c>
       <c r="C20" t="n">
-        <v>1116.16712417525</v>
+        <v>1116.167124175249</v>
       </c>
       <c r="D20" t="n">
-        <v>916.1603581936774</v>
+        <v>916.1603581936771</v>
       </c>
       <c r="E20" t="n">
-        <v>694.1918370909883</v>
+        <v>694.191837090988</v>
       </c>
       <c r="F20" t="n">
         <v>452.8578451923626</v>
@@ -5744,37 +5744,37 @@
         <v>209.5710574377546</v>
       </c>
       <c r="H20" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J20" t="n">
         <v>121.5655260990735</v>
       </c>
       <c r="K20" t="n">
-        <v>361.7058981438563</v>
+        <v>392.5431856017008</v>
       </c>
       <c r="L20" t="n">
-        <v>829.2631432893611</v>
+        <v>740.4285586866471</v>
       </c>
       <c r="M20" t="n">
-        <v>1222.502309542449</v>
+        <v>1303.045861474994</v>
       </c>
       <c r="N20" t="n">
-        <v>1600.833668230165</v>
+        <v>1681.37722016271</v>
       </c>
       <c r="O20" t="n">
-        <v>1905.838252702999</v>
+        <v>1986.381804635544</v>
       </c>
       <c r="P20" t="n">
-        <v>2133.995149159052</v>
+        <v>2214.538701091597</v>
       </c>
       <c r="Q20" t="n">
-        <v>2397.805539380848</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R20" t="n">
-        <v>2478.349091313392</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S20" t="n">
         <v>2463.937314734951</v>
@@ -5795,7 +5795,7 @@
         <v>1767.234681411011</v>
       </c>
       <c r="Y20" t="n">
-        <v>1546.510024778054</v>
+        <v>1546.510024778053</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>928.8797423283119</v>
+        <v>839.0161906131307</v>
       </c>
       <c r="C21" t="n">
-        <v>767.1760695692666</v>
+        <v>677.3125178540854</v>
       </c>
       <c r="D21" t="n">
-        <v>628.3374325594787</v>
+        <v>559.9551472495398</v>
       </c>
       <c r="E21" t="n">
-        <v>481.3094226163499</v>
+        <v>412.9271373064109</v>
       </c>
       <c r="F21" t="n">
-        <v>346.6156245662243</v>
+        <v>278.2333392562853</v>
       </c>
       <c r="G21" t="n">
-        <v>217.8871245895088</v>
+        <v>149.5048392795698</v>
       </c>
       <c r="H21" t="n">
-        <v>117.9492671362069</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I21" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J21" t="n">
-        <v>49.56698182626785</v>
+        <v>109.821128359374</v>
       </c>
       <c r="K21" t="n">
-        <v>279.0575343864565</v>
+        <v>339.3116809195627</v>
       </c>
       <c r="L21" t="n">
-        <v>644.8793795565721</v>
+        <v>705.1335260896783</v>
       </c>
       <c r="M21" t="n">
-        <v>1129.912733066798</v>
+        <v>1190.166879599905</v>
       </c>
       <c r="N21" t="n">
-        <v>1641.178379189921</v>
+        <v>1626.281591467951</v>
       </c>
       <c r="O21" t="n">
-        <v>2033.378329974071</v>
+        <v>2018.481542252101</v>
       </c>
       <c r="P21" t="n">
-        <v>2335.474249249769</v>
+        <v>2320.577461527799</v>
       </c>
       <c r="Q21" t="n">
-        <v>2478.349091313392</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R21" t="n">
-        <v>2478.349091313392</v>
+        <v>2418.564822408338</v>
       </c>
       <c r="S21" t="n">
-        <v>2325.549604326133</v>
+        <v>2265.765335421079</v>
       </c>
       <c r="T21" t="n">
-        <v>2166.943783302245</v>
+        <v>2077.080231587064</v>
       </c>
       <c r="U21" t="n">
-        <v>1948.448990900555</v>
+        <v>1858.585439185374</v>
       </c>
       <c r="V21" t="n">
-        <v>1720.053368348889</v>
+        <v>1630.189816633708</v>
       </c>
       <c r="W21" t="n">
-        <v>1478.737499582199</v>
+        <v>1388.873947867018</v>
       </c>
       <c r="X21" t="n">
-        <v>1280.820511459994</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y21" t="n">
-        <v>1088.299185109573</v>
+        <v>998.4356333943916</v>
       </c>
     </row>
     <row r="22">
@@ -5884,70 +5884,70 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="C22" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="D22" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="E22" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="F22" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="G22" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="H22" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I22" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J22" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K22" t="n">
-        <v>83.17116957091126</v>
+        <v>83.17116957091127</v>
       </c>
       <c r="L22" t="n">
-        <v>186.9950662080453</v>
+        <v>183.7782489711708</v>
       </c>
       <c r="M22" t="n">
-        <v>304.9885723356471</v>
+        <v>301.7717550987725</v>
       </c>
       <c r="N22" t="n">
-        <v>423.4109140852474</v>
+        <v>423.4109140852476</v>
       </c>
       <c r="O22" t="n">
-        <v>521.8745605809371</v>
+        <v>521.8745605809372</v>
       </c>
       <c r="P22" t="n">
-        <v>584.8430443090749</v>
+        <v>584.843044309075</v>
       </c>
       <c r="Q22" t="n">
-        <v>584.8430443090749</v>
+        <v>584.843044309075</v>
       </c>
       <c r="R22" t="n">
-        <v>584.8430443090749</v>
+        <v>584.843044309075</v>
       </c>
       <c r="S22" t="n">
-        <v>543.9504805039664</v>
+        <v>543.9504805039666</v>
       </c>
       <c r="T22" t="n">
-        <v>483.5887261108492</v>
+        <v>483.5887261108493</v>
       </c>
       <c r="U22" t="n">
-        <v>369.2156853911531</v>
+        <v>369.2156853911532</v>
       </c>
       <c r="V22" t="n">
-        <v>281.2975797407797</v>
+        <v>281.2975797407798</v>
       </c>
       <c r="W22" t="n">
-        <v>167.9583770493828</v>
+        <v>167.9583770493829</v>
       </c>
       <c r="X22" t="n">
         <v>109.5231117359626</v>
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1325.283684051238</v>
+        <v>1325.28368405124</v>
       </c>
       <c r="C23" t="n">
-        <v>1116.167124175249</v>
+        <v>1116.167124175251</v>
       </c>
       <c r="D23" t="n">
-        <v>916.1603581936773</v>
+        <v>916.1603581936782</v>
       </c>
       <c r="E23" t="n">
-        <v>694.1918370909882</v>
+        <v>694.1918370909891</v>
       </c>
       <c r="F23" t="n">
-        <v>452.8578451923625</v>
+        <v>452.8578451923634</v>
       </c>
       <c r="G23" t="n">
-        <v>209.5710574377545</v>
+        <v>209.5710574377554</v>
       </c>
       <c r="H23" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="J23" t="n">
-        <v>290.9436626343325</v>
+        <v>290.9436626343326</v>
       </c>
       <c r="K23" t="n">
-        <v>531.0840346791152</v>
+        <v>531.0840346791153</v>
       </c>
       <c r="L23" t="n">
         <v>878.9694077640615</v>
@@ -5999,7 +5999,7 @@
         <v>1272.208574017149</v>
       </c>
       <c r="N23" t="n">
-        <v>1819.918069240124</v>
+        <v>1650.539932704865</v>
       </c>
       <c r="O23" t="n">
         <v>2124.922653712958</v>
@@ -6008,31 +6008,31 @@
         <v>2353.079550169011</v>
       </c>
       <c r="Q23" t="n">
-        <v>2447.511803855548</v>
+        <v>2478.349091313394</v>
       </c>
       <c r="R23" t="n">
-        <v>2478.349091313392</v>
+        <v>2478.349091313394</v>
       </c>
       <c r="S23" t="n">
-        <v>2463.937314734951</v>
+        <v>2463.937314734952</v>
       </c>
       <c r="T23" t="n">
-        <v>2412.395567257166</v>
+        <v>2412.395567257168</v>
       </c>
       <c r="U23" t="n">
-        <v>2330.327429762363</v>
+        <v>2330.327429762366</v>
       </c>
       <c r="V23" t="n">
-        <v>2166.165354449509</v>
+        <v>2166.165354449511</v>
       </c>
       <c r="W23" t="n">
-        <v>1976.447623098314</v>
+        <v>1976.447623098316</v>
       </c>
       <c r="X23" t="n">
-        <v>1767.234681411011</v>
+        <v>1767.234681411013</v>
       </c>
       <c r="Y23" t="n">
-        <v>1546.510024778053</v>
+        <v>1546.510024778055</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>928.8797423283119</v>
+        <v>839.016190613132</v>
       </c>
       <c r="C24" t="n">
-        <v>767.1760695692666</v>
+        <v>677.3125178540868</v>
       </c>
       <c r="D24" t="n">
-        <v>628.3374325594787</v>
+        <v>538.4738808442988</v>
       </c>
       <c r="E24" t="n">
-        <v>481.3094226163499</v>
+        <v>391.4458709011701</v>
       </c>
       <c r="F24" t="n">
-        <v>346.6156245662243</v>
+        <v>256.7520728510444</v>
       </c>
       <c r="G24" t="n">
-        <v>217.8871245895088</v>
+        <v>128.023572874329</v>
       </c>
       <c r="H24" t="n">
         <v>117.9492671362069</v>
       </c>
       <c r="I24" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="J24" t="n">
         <v>109.821128359374</v>
@@ -6072,46 +6072,46 @@
         <v>339.3116809195627</v>
       </c>
       <c r="L24" t="n">
-        <v>705.1335260896783</v>
+        <v>629.9825918346036</v>
       </c>
       <c r="M24" t="n">
-        <v>1190.166879599905</v>
+        <v>1115.01594534483</v>
       </c>
       <c r="N24" t="n">
-        <v>1701.432525723027</v>
+        <v>1626.281591467952</v>
       </c>
       <c r="O24" t="n">
-        <v>2093.632476507178</v>
+        <v>2018.481542252103</v>
       </c>
       <c r="P24" t="n">
-        <v>2395.728395782875</v>
+        <v>2320.5774615278</v>
       </c>
       <c r="Q24" t="n">
-        <v>2478.349091313392</v>
+        <v>2478.349091313394</v>
       </c>
       <c r="R24" t="n">
-        <v>2418.564822408338</v>
+        <v>2418.56482240834</v>
       </c>
       <c r="S24" t="n">
-        <v>2355.62888713626</v>
+        <v>2265.76533542108</v>
       </c>
       <c r="T24" t="n">
-        <v>2166.943783302245</v>
+        <v>2077.080231587066</v>
       </c>
       <c r="U24" t="n">
-        <v>1948.448990900555</v>
+        <v>1858.585439185376</v>
       </c>
       <c r="V24" t="n">
-        <v>1720.053368348889</v>
+        <v>1630.18981663371</v>
       </c>
       <c r="W24" t="n">
-        <v>1478.737499582199</v>
+        <v>1388.87394786702</v>
       </c>
       <c r="X24" t="n">
-        <v>1280.820511459994</v>
+        <v>1190.956959744814</v>
       </c>
       <c r="Y24" t="n">
-        <v>1088.299185109573</v>
+        <v>998.435633394393</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="C25" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="D25" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="E25" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="F25" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="G25" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="H25" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="I25" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="J25" t="n">
-        <v>49.56698182626785</v>
+        <v>49.56698182626788</v>
       </c>
       <c r="K25" t="n">
-        <v>83.17116957091126</v>
+        <v>83.1711695709113</v>
       </c>
       <c r="L25" t="n">
         <v>183.7782489711708</v>
@@ -6157,40 +6157,40 @@
         <v>301.7717550987725</v>
       </c>
       <c r="N25" t="n">
-        <v>423.4109140852474</v>
+        <v>420.1940968483729</v>
       </c>
       <c r="O25" t="n">
-        <v>521.8745605809371</v>
+        <v>518.6577433440626</v>
       </c>
       <c r="P25" t="n">
-        <v>584.8430443090749</v>
+        <v>581.6262270722004</v>
       </c>
       <c r="Q25" t="n">
-        <v>584.8430443090749</v>
+        <v>584.843044309075</v>
       </c>
       <c r="R25" t="n">
-        <v>584.8430443090749</v>
+        <v>584.843044309075</v>
       </c>
       <c r="S25" t="n">
-        <v>543.9504805039664</v>
+        <v>543.9504805039666</v>
       </c>
       <c r="T25" t="n">
-        <v>483.5887261108492</v>
+        <v>483.5887261108493</v>
       </c>
       <c r="U25" t="n">
-        <v>369.2156853911531</v>
+        <v>369.2156853911532</v>
       </c>
       <c r="V25" t="n">
-        <v>281.2975797407797</v>
+        <v>281.2975797407798</v>
       </c>
       <c r="W25" t="n">
-        <v>167.9583770493828</v>
+        <v>167.9583770493829</v>
       </c>
       <c r="X25" t="n">
         <v>109.5231117359626</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.30515171944369</v>
+        <v>60.30515171944372</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1685.966439673577</v>
+        <v>1421.109062253346</v>
       </c>
       <c r="C26" t="n">
-        <v>1418.60860576215</v>
+        <v>1153.75122834192</v>
       </c>
       <c r="D26" t="n">
-        <v>1160.36056574514</v>
+        <v>895.5031883249098</v>
       </c>
       <c r="E26" t="n">
-        <v>880.1507706070132</v>
+        <v>615.2933931867831</v>
       </c>
       <c r="F26" t="n">
-        <v>580.5755046729499</v>
+        <v>315.71812725272</v>
       </c>
       <c r="G26" t="n">
-        <v>279.0474428829044</v>
+        <v>119.0433672714176</v>
       </c>
       <c r="H26" t="n">
-        <v>60.80209323598001</v>
+        <v>119.0433672714176</v>
       </c>
       <c r="I26" t="n">
-        <v>60.80209323598001</v>
+        <v>60.80209323598003</v>
       </c>
       <c r="J26" t="n">
         <v>245.0965013619123</v>
@@ -6230,46 +6230,46 @@
         <v>597.5327372598217</v>
       </c>
       <c r="L26" t="n">
-        <v>1055.999803726727</v>
+        <v>1057.713974197894</v>
       </c>
       <c r="M26" t="n">
-        <v>1561.534833832941</v>
+        <v>1563.249004304109</v>
       </c>
       <c r="N26" t="n">
-        <v>2052.162056373784</v>
+        <v>2053.876226844951</v>
       </c>
       <c r="O26" t="n">
-        <v>2469.462504699744</v>
+        <v>2471.176675170912</v>
       </c>
       <c r="P26" t="n">
-        <v>2809.915265008924</v>
+        <v>2809.915265008925</v>
       </c>
       <c r="Q26" t="n">
-        <v>3016.643382548588</v>
+        <v>3016.643382548589</v>
       </c>
       <c r="R26" t="n">
-        <v>3040.104661799</v>
+        <v>3040.104661799001</v>
       </c>
       <c r="S26" t="n">
-        <v>2967.451611185121</v>
+        <v>2967.451611185122</v>
       </c>
       <c r="T26" t="n">
-        <v>2857.668589671898</v>
+        <v>2857.668589671899</v>
       </c>
       <c r="U26" t="n">
         <v>2717.359178141659</v>
       </c>
       <c r="V26" t="n">
-        <v>2494.955828793366</v>
+        <v>2494.955828793367</v>
       </c>
       <c r="W26" t="n">
-        <v>2246.996823406734</v>
+        <v>2246.996823406735</v>
       </c>
       <c r="X26" t="n">
-        <v>1979.542607683994</v>
+        <v>1979.542607683995</v>
       </c>
       <c r="Y26" t="n">
-        <v>1700.576677015598</v>
+        <v>1700.576677015599</v>
       </c>
     </row>
     <row r="27">
@@ -6300,10 +6300,10 @@
         <v>114.4717610858144</v>
       </c>
       <c r="I27" t="n">
-        <v>60.80209323598001</v>
+        <v>60.80209323598003</v>
       </c>
       <c r="J27" t="n">
-        <v>121.0562397690861</v>
+        <v>121.0562397690862</v>
       </c>
       <c r="K27" t="n">
         <v>350.5467923292748</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.4435901192739</v>
+        <v>358.4435901192735</v>
       </c>
       <c r="C28" t="n">
-        <v>303.4035453367205</v>
+        <v>303.4035453367203</v>
       </c>
       <c r="D28" t="n">
         <v>264.9075769202495</v>
       </c>
       <c r="E28" t="n">
-        <v>227.474487437335</v>
+        <v>227.4744874373349</v>
       </c>
       <c r="F28" t="n">
         <v>189.5697572188786</v>
       </c>
       <c r="G28" t="n">
-        <v>135.225933342495</v>
+        <v>135.2259333424949</v>
       </c>
       <c r="H28" t="n">
-        <v>90.42921287753515</v>
+        <v>90.42921287753512</v>
       </c>
       <c r="I28" t="n">
-        <v>60.80209323598001</v>
+        <v>60.80209323598003</v>
       </c>
       <c r="J28" t="n">
-        <v>114.2358575511375</v>
+        <v>114.2358575511373</v>
       </c>
       <c r="K28" t="n">
-        <v>260.1359091489076</v>
+        <v>260.1359091489073</v>
       </c>
       <c r="L28" t="n">
-        <v>473.0388524022937</v>
+        <v>473.0388524022935</v>
       </c>
       <c r="M28" t="n">
-        <v>703.3282223830221</v>
+        <v>703.328222383022</v>
       </c>
       <c r="N28" t="n">
         <v>934.046427985749</v>
@@ -6415,19 +6415,19 @@
         <v>1141.912978616481</v>
       </c>
       <c r="U28" t="n">
-        <v>969.2986638613473</v>
+        <v>969.298663861347</v>
       </c>
       <c r="V28" t="n">
-        <v>823.1392841755363</v>
+        <v>823.139284175536</v>
       </c>
       <c r="W28" t="n">
-        <v>651.5588074487018</v>
+        <v>651.5588074487015</v>
       </c>
       <c r="X28" t="n">
-        <v>534.8822680998439</v>
+        <v>534.8822680998436</v>
       </c>
       <c r="Y28" t="n">
-        <v>427.4230340478874</v>
+        <v>427.4230340478871</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1485.959673692004</v>
+        <v>1421.109062253346</v>
       </c>
       <c r="C29" t="n">
-        <v>1218.601839780577</v>
+        <v>1153.751228341919</v>
       </c>
       <c r="D29" t="n">
-        <v>1218.601839780577</v>
+        <v>895.503188324909</v>
       </c>
       <c r="E29" t="n">
-        <v>938.3920446424507</v>
+        <v>720.1466949955264</v>
       </c>
       <c r="F29" t="n">
-        <v>638.8167787083875</v>
+        <v>420.5714290614632</v>
       </c>
       <c r="G29" t="n">
-        <v>337.2887169183418</v>
+        <v>119.0433672714176</v>
       </c>
       <c r="H29" t="n">
         <v>119.0433672714176</v>
       </c>
       <c r="I29" t="n">
-        <v>60.80209323598001</v>
+        <v>60.80209323598003</v>
       </c>
       <c r="J29" t="n">
         <v>245.0965013619123</v>
@@ -6482,31 +6482,31 @@
         <v>2811.629435480092</v>
       </c>
       <c r="Q29" t="n">
-        <v>3016.643382548588</v>
+        <v>3018.357553019756</v>
       </c>
       <c r="R29" t="n">
-        <v>3040.104661799</v>
+        <v>3040.104661799001</v>
       </c>
       <c r="S29" t="n">
-        <v>3032.302222623779</v>
+        <v>2967.451611185122</v>
       </c>
       <c r="T29" t="n">
-        <v>2922.519201110556</v>
+        <v>2857.668589671899</v>
       </c>
       <c r="U29" t="n">
-        <v>2782.209789580317</v>
+        <v>2717.359178141659</v>
       </c>
       <c r="V29" t="n">
-        <v>2559.806440232025</v>
+        <v>2494.955828793367</v>
       </c>
       <c r="W29" t="n">
-        <v>2311.847434845392</v>
+        <v>2246.996823406734</v>
       </c>
       <c r="X29" t="n">
-        <v>2044.393219122652</v>
+        <v>1979.542607683994</v>
       </c>
       <c r="Y29" t="n">
-        <v>1765.427288454256</v>
+        <v>1700.576677015598</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>940.114853738024</v>
+        <v>925.4022362779194</v>
       </c>
       <c r="C30" t="n">
-        <v>778.4111809789787</v>
+        <v>763.6985635188742</v>
       </c>
       <c r="D30" t="n">
-        <v>639.5725439691907</v>
+        <v>624.8599265090862</v>
       </c>
       <c r="E30" t="n">
-        <v>492.544534026062</v>
+        <v>477.8319165659574</v>
       </c>
       <c r="F30" t="n">
-        <v>357.8507359759363</v>
+        <v>343.1381185158318</v>
       </c>
       <c r="G30" t="n">
-        <v>229.1222359992209</v>
+        <v>214.4096185391164</v>
       </c>
       <c r="H30" t="n">
         <v>129.184378545919</v>
       </c>
       <c r="I30" t="n">
-        <v>60.80209323598001</v>
+        <v>60.80209323598003</v>
       </c>
       <c r="J30" t="n">
-        <v>121.0562397690861</v>
+        <v>121.0562397690862</v>
       </c>
       <c r="K30" t="n">
         <v>350.5467923292748</v>
@@ -6567,25 +6567,25 @@
         <v>2504.950868073127</v>
       </c>
       <c r="S30" t="n">
-        <v>2366.863998545972</v>
+        <v>2352.151381085867</v>
       </c>
       <c r="T30" t="n">
-        <v>2178.178894711957</v>
+        <v>2163.466277251853</v>
       </c>
       <c r="U30" t="n">
-        <v>1959.684102310267</v>
+        <v>1944.971484850163</v>
       </c>
       <c r="V30" t="n">
-        <v>1731.288479758601</v>
+        <v>1716.575862298497</v>
       </c>
       <c r="W30" t="n">
-        <v>1489.972610991911</v>
+        <v>1475.259993531807</v>
       </c>
       <c r="X30" t="n">
-        <v>1292.055622869706</v>
+        <v>1277.343005409601</v>
       </c>
       <c r="Y30" t="n">
-        <v>1099.534296519285</v>
+        <v>1084.82167905918</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.4435901192738</v>
+        <v>358.4435901192739</v>
       </c>
       <c r="C31" t="n">
-        <v>303.4035453367206</v>
+        <v>303.4035453367207</v>
       </c>
       <c r="D31" t="n">
         <v>264.9075769202498</v>
@@ -6610,31 +6610,31 @@
         <v>189.5697572188785</v>
       </c>
       <c r="G31" t="n">
-        <v>135.2259333424948</v>
+        <v>135.225933342495</v>
       </c>
       <c r="H31" t="n">
-        <v>90.42921287753508</v>
+        <v>90.42921287753512</v>
       </c>
       <c r="I31" t="n">
-        <v>60.80209323598001</v>
+        <v>60.80209323598003</v>
       </c>
       <c r="J31" t="n">
-        <v>114.2358575511374</v>
+        <v>114.2358575511375</v>
       </c>
       <c r="K31" t="n">
-        <v>260.1359091489074</v>
+        <v>260.1359091489078</v>
       </c>
       <c r="L31" t="n">
-        <v>473.0388524022936</v>
+        <v>473.0388524022941</v>
       </c>
       <c r="M31" t="n">
-        <v>703.328222383022</v>
+        <v>703.3282223830224</v>
       </c>
       <c r="N31" t="n">
-        <v>934.0464279857492</v>
+        <v>934.0464279857495</v>
       </c>
       <c r="O31" t="n">
-        <v>1144.805938334565</v>
+        <v>1144.805938334566</v>
       </c>
       <c r="P31" t="n">
         <v>1320.07028591583</v>
@@ -6652,19 +6652,19 @@
         <v>1141.912978616481</v>
       </c>
       <c r="U31" t="n">
-        <v>969.2986638613471</v>
+        <v>969.2986638613472</v>
       </c>
       <c r="V31" t="n">
-        <v>823.1392841755361</v>
+        <v>823.1392841755362</v>
       </c>
       <c r="W31" t="n">
-        <v>651.5588074487016</v>
+        <v>651.5588074487017</v>
       </c>
       <c r="X31" t="n">
-        <v>534.8822680998437</v>
+        <v>534.8822680998438</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.4230340478872</v>
+        <v>427.4230340478873</v>
       </c>
     </row>
     <row r="32">
@@ -6692,31 +6692,31 @@
         <v>277.9467416697662</v>
       </c>
       <c r="H32" t="n">
-        <v>88.29303307271694</v>
+        <v>88.29303307271692</v>
       </c>
       <c r="I32" t="n">
-        <v>58.64340008715436</v>
+        <v>58.64340008715437</v>
       </c>
       <c r="J32" t="n">
         <v>270.9604756060692</v>
       </c>
       <c r="K32" t="n">
-        <v>651.419378896961</v>
+        <v>651.4193788969612</v>
       </c>
       <c r="L32" t="n">
-        <v>999.3047519819072</v>
+        <v>1060.566204419768</v>
       </c>
       <c r="M32" t="n">
-        <v>1392.543918234995</v>
+        <v>1453.805370672856</v>
       </c>
       <c r="N32" t="n">
-        <v>1832.136729360571</v>
+        <v>1972.455260606681</v>
       </c>
       <c r="O32" t="n">
-        <v>2277.459845079514</v>
+        <v>2417.778376325624</v>
       </c>
       <c r="P32" t="n">
-        <v>2645.935272781677</v>
+        <v>2786.253804027786</v>
       </c>
       <c r="Q32" t="n">
         <v>2880.686057714323</v>
@@ -6728,7 +6728,7 @@
         <v>2888.108594793714</v>
       </c>
       <c r="T32" t="n">
-        <v>2806.917214330366</v>
+        <v>2806.917214330367</v>
       </c>
       <c r="U32" t="n">
         <v>2695.199443850001</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>937.9561605891985</v>
+        <v>923.243543129094</v>
       </c>
       <c r="C33" t="n">
-        <v>776.2524878301532</v>
+        <v>761.5398703700487</v>
       </c>
       <c r="D33" t="n">
-        <v>637.4138508203653</v>
+        <v>622.7012333602607</v>
       </c>
       <c r="E33" t="n">
-        <v>490.3858408772364</v>
+        <v>475.673223417132</v>
       </c>
       <c r="F33" t="n">
-        <v>355.6920428271108</v>
+        <v>340.9794253670063</v>
       </c>
       <c r="G33" t="n">
-        <v>226.9635428503953</v>
+        <v>212.2509253902909</v>
       </c>
       <c r="H33" t="n">
         <v>127.0256853970934</v>
       </c>
       <c r="I33" t="n">
-        <v>58.64340008715436</v>
+        <v>58.64340008715437</v>
       </c>
       <c r="J33" t="n">
         <v>118.8975466202605</v>
@@ -6804,25 +6804,25 @@
         <v>2502.792174924301</v>
       </c>
       <c r="S33" t="n">
-        <v>2364.705305397146</v>
+        <v>2349.992687937042</v>
       </c>
       <c r="T33" t="n">
-        <v>2176.020201563132</v>
+        <v>2161.307584103027</v>
       </c>
       <c r="U33" t="n">
-        <v>1957.525409161442</v>
+        <v>1942.812791701337</v>
       </c>
       <c r="V33" t="n">
-        <v>1729.129786609776</v>
+        <v>1714.417169149671</v>
       </c>
       <c r="W33" t="n">
-        <v>1487.813917843086</v>
+        <v>1473.101300382981</v>
       </c>
       <c r="X33" t="n">
-        <v>1289.896929720881</v>
+        <v>1275.184312260776</v>
       </c>
       <c r="Y33" t="n">
-        <v>1097.375603370459</v>
+        <v>1082.662985910355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.1434096213231</v>
+        <v>156.1434096213229</v>
       </c>
       <c r="C34" t="n">
-        <v>129.6950058886448</v>
+        <v>129.6950058886447</v>
       </c>
       <c r="D34" t="n">
-        <v>119.790678522049</v>
+        <v>119.7906785220488</v>
       </c>
       <c r="E34" t="n">
-        <v>110.9492300890092</v>
+        <v>110.9492300890091</v>
       </c>
       <c r="F34" t="n">
         <v>101.6361409204277</v>
       </c>
       <c r="G34" t="n">
-        <v>75.88395809391918</v>
+        <v>75.88395809391913</v>
       </c>
       <c r="H34" t="n">
-        <v>59.67887867883442</v>
+        <v>59.6788786788344</v>
       </c>
       <c r="I34" t="n">
-        <v>58.64340008715436</v>
+        <v>58.64340008715437</v>
       </c>
       <c r="J34" t="n">
-        <v>58.64340008715436</v>
+        <v>58.64340008715437</v>
       </c>
       <c r="K34" t="n">
-        <v>232.5661190779069</v>
+        <v>232.566119077907</v>
       </c>
       <c r="L34" t="n">
-        <v>333.1731984781664</v>
+        <v>333.1731984781665</v>
       </c>
       <c r="M34" t="n">
-        <v>552.5681966025935</v>
+        <v>451.1667046057682</v>
       </c>
       <c r="N34" t="n">
-        <v>670.9905383521939</v>
+        <v>633.2200900986739</v>
       </c>
       <c r="O34" t="n">
-        <v>769.4541848478835</v>
+        <v>872.0022678404728</v>
       </c>
       <c r="P34" t="n">
-        <v>832.4226685760214</v>
+        <v>934.9707515686106</v>
       </c>
       <c r="Q34" t="n">
-        <v>934.9707515686111</v>
+        <v>934.9707515686106</v>
       </c>
       <c r="R34" t="n">
-        <v>928.6165359886307</v>
+        <v>928.6165359886303</v>
       </c>
       <c r="S34" t="n">
-        <v>858.0743391979597</v>
+        <v>858.0743391979593</v>
       </c>
       <c r="T34" t="n">
-        <v>768.06295181928</v>
+        <v>768.0629518192795</v>
       </c>
       <c r="U34" t="n">
-        <v>624.0402781140212</v>
+        <v>624.0402781140209</v>
       </c>
       <c r="V34" t="n">
-        <v>506.4725394780853</v>
+        <v>506.472539478085</v>
       </c>
       <c r="W34" t="n">
-        <v>363.4837038011258</v>
+        <v>363.4837038011256</v>
       </c>
       <c r="X34" t="n">
-        <v>275.398805502143</v>
+        <v>275.3988055021427</v>
       </c>
       <c r="Y34" t="n">
-        <v>196.5312125000615</v>
+        <v>196.5312125000613</v>
       </c>
     </row>
     <row r="35">
@@ -6917,46 +6917,46 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D35" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E35" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G35" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575749</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
-        <v>287.5669931259237</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>692.1751396617389</v>
+        <v>479.0485364810476</v>
       </c>
       <c r="L35" t="n">
-        <v>1080.236268659741</v>
+        <v>826.9339095659939</v>
       </c>
       <c r="M35" t="n">
-        <v>1473.475434912829</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N35" t="n">
-        <v>1851.806793600545</v>
+        <v>1598.504434506797</v>
       </c>
       <c r="O35" t="n">
-        <v>2156.811378073378</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P35" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.601464417749</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -6971,7 +6971,7 @@
         <v>2391.981869702243</v>
       </c>
       <c r="V35" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W35" t="n">
         <v>2028.08193847085</v>
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C36" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D36" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E36" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F36" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L36" t="n">
         <v>706.6672186254962</v>
@@ -7038,28 +7038,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S36" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U36" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V36" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W36" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X36" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749096</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C37" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D37" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E37" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F37" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J37" t="n">
-        <v>97.31943502373952</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K37" t="n">
-        <v>130.9236227683829</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L37" t="n">
-        <v>231.5307021686424</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>349.5242082962442</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9465500458446</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O37" t="n">
-        <v>566.4101965415342</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P37" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q37" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R37" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808919</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041029</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U37" t="n">
-        <v>398.721134500735</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666899</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W37" t="n">
-        <v>187.4437015916212</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945292</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433856</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7154,19 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D38" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E38" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F38" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G38" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H38" t="n">
-        <v>56.11073664575749</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
         <v>51.10067436208574</v>
@@ -7175,25 +7175,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>363.2395906796742</v>
+        <v>479.0485364810483</v>
       </c>
       <c r="L38" t="n">
-        <v>711.1249637646204</v>
+        <v>826.9339095659946</v>
       </c>
       <c r="M38" t="n">
-        <v>1104.364130017708</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N38" t="n">
-        <v>1522.87124461848</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O38" t="n">
-        <v>1827.875829091314</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P38" t="n">
-        <v>2220.500500038399</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C39" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D39" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F39" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G39" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H39" t="n">
         <v>119.4829596720247</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S39" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W39" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749096</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C40" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D40" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E40" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F40" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G40" t="n">
         <v>51.10067436208574</v>
@@ -7327,55 +7327,55 @@
         <v>51.10067436208574</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208574</v>
+        <v>74.23504503930334</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208574</v>
+        <v>74.23504503930334</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672915</v>
+        <v>107.8392327839468</v>
       </c>
       <c r="L40" t="n">
-        <v>185.3119415069887</v>
+        <v>208.4463121842062</v>
       </c>
       <c r="M40" t="n">
-        <v>303.3054476345904</v>
+        <v>326.439818311808</v>
       </c>
       <c r="N40" t="n">
-        <v>421.7277893841908</v>
+        <v>444.8621600614084</v>
       </c>
       <c r="O40" t="n">
-        <v>520.1914358798805</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P40" t="n">
-        <v>583.1599196080183</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>611.4572037146876</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808919</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041029</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.721134500735</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666899</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916212</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945292</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433856</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1316.866346054382</v>
+        <v>1316.866346054381</v>
       </c>
       <c r="C41" t="n">
-        <v>1097.112040579924</v>
+        <v>1097.112040579923</v>
       </c>
       <c r="D41" t="n">
-        <v>886.467528999883</v>
+        <v>886.4675289998818</v>
       </c>
       <c r="E41" t="n">
-        <v>653.861262298725</v>
+        <v>653.8612622987237</v>
       </c>
       <c r="F41" t="n">
-        <v>401.8895248016305</v>
+        <v>486.3047745235874</v>
       </c>
       <c r="G41" t="n">
-        <v>147.9649914485536</v>
+        <v>232.3802411705104</v>
       </c>
       <c r="H41" t="n">
-        <v>51.10067436208573</v>
+        <v>61.73841996055469</v>
       </c>
       <c r="I41" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="J41" t="n">
-        <v>123.0992186348914</v>
+        <v>282.051300709091</v>
       </c>
       <c r="K41" t="n">
-        <v>490.0799213147133</v>
+        <v>522.1916727538737</v>
       </c>
       <c r="L41" t="n">
-        <v>837.9652943996596</v>
+        <v>870.0770458388199</v>
       </c>
       <c r="M41" t="n">
-        <v>1231.204460652747</v>
+        <v>1263.316212091908</v>
       </c>
       <c r="N41" t="n">
-        <v>1768.487901414663</v>
+        <v>1641.647570779623</v>
       </c>
       <c r="O41" t="n">
-        <v>2232.444567961697</v>
+        <v>1946.652155252457</v>
       </c>
       <c r="P41" t="n">
-        <v>2460.60146441775</v>
+        <v>2301.64938234355</v>
       </c>
       <c r="Q41" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7442,7 +7442,7 @@
         <v>2467.804702851122</v>
       </c>
       <c r="U41" t="n">
-        <v>2375.098819757852</v>
+        <v>2375.098819757851</v>
       </c>
       <c r="V41" t="n">
         <v>2200.298998846528</v>
@@ -7451,10 +7451,10 @@
         <v>1999.943521896864</v>
       </c>
       <c r="X41" t="n">
-        <v>1780.092834611093</v>
+        <v>1780.092834611092</v>
       </c>
       <c r="Y41" t="n">
-        <v>1548.730432379666</v>
+        <v>1548.730432379665</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H42" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I42" t="n">
         <v>51.10067436208573</v>
@@ -7527,13 +7527,13 @@
         <v>1706.874443424603</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.27748614708513</v>
+        <v>58.5371907076704</v>
       </c>
       <c r="C43" t="n">
-        <v>57.84096980150057</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D43" t="n">
-        <v>57.84096980150057</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E43" t="n">
-        <v>57.84096980150057</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F43" t="n">
-        <v>57.84096980150057</v>
+        <v>57.84096980150068</v>
       </c>
       <c r="G43" t="n">
         <v>51.10067436208573</v>
@@ -7567,52 +7567,52 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J43" t="n">
-        <v>151.1906568983161</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K43" t="n">
-        <v>184.7948446429596</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L43" t="n">
-        <v>287.8075353166134</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>405.8010414442151</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N43" t="n">
-        <v>524.2233831938155</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O43" t="n">
-        <v>622.6870296895052</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P43" t="n">
-        <v>685.655513417643</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q43" t="n">
-        <v>685.655513417643</v>
+        <v>678.9152179782293</v>
       </c>
       <c r="R43" t="n">
-        <v>685.655513417643</v>
+        <v>678.9152179782293</v>
       </c>
       <c r="S43" t="n">
-        <v>634.1252040140656</v>
+        <v>627.3849085746518</v>
       </c>
       <c r="T43" t="n">
-        <v>563.1257040224796</v>
+        <v>556.3854085830657</v>
       </c>
       <c r="U43" t="n">
-        <v>438.1149177043146</v>
+        <v>431.3746222649006</v>
       </c>
       <c r="V43" t="n">
-        <v>339.5590664554724</v>
+        <v>332.8187710160582</v>
       </c>
       <c r="W43" t="n">
-        <v>215.5821181656066</v>
+        <v>208.8418227261923</v>
       </c>
       <c r="X43" t="n">
-        <v>146.5091072537176</v>
+        <v>139.7688118143031</v>
       </c>
       <c r="Y43" t="n">
-        <v>86.6534016387298</v>
+        <v>79.91310619931519</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1316.866346054382</v>
+        <v>1316.866346054381</v>
       </c>
       <c r="C44" t="n">
-        <v>1097.112040579924</v>
+        <v>1170.889544703413</v>
       </c>
       <c r="D44" t="n">
-        <v>886.4675289998829</v>
+        <v>960.2450331233713</v>
       </c>
       <c r="E44" t="n">
-        <v>653.8612622987246</v>
+        <v>727.6387664222132</v>
       </c>
       <c r="F44" t="n">
-        <v>401.8895248016299</v>
+        <v>475.6670289251184</v>
       </c>
       <c r="G44" t="n">
-        <v>232.3802411705102</v>
+        <v>221.7424955720414</v>
       </c>
       <c r="H44" t="n">
-        <v>61.73841996055461</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>123.0992186348914</v>
+        <v>282.051300709091</v>
       </c>
       <c r="K44" t="n">
-        <v>522.1916727538738</v>
+        <v>522.1916727538737</v>
       </c>
       <c r="L44" t="n">
-        <v>870.0770458388201</v>
+        <v>1029.02912791302</v>
       </c>
       <c r="M44" t="n">
-        <v>1263.316212091908</v>
+        <v>1422.268294166108</v>
       </c>
       <c r="N44" t="n">
         <v>1800.599652853823</v>
@@ -7679,7 +7679,7 @@
         <v>2467.804702851122</v>
       </c>
       <c r="U44" t="n">
-        <v>2375.098819757852</v>
+        <v>2375.098819757851</v>
       </c>
       <c r="V44" t="n">
         <v>2200.298998846528</v>
@@ -7688,10 +7688,10 @@
         <v>1999.943521896864</v>
       </c>
       <c r="X44" t="n">
-        <v>1780.092834611093</v>
+        <v>1780.092834611092</v>
       </c>
       <c r="Y44" t="n">
-        <v>1548.730432379666</v>
+        <v>1548.730432379665</v>
       </c>
     </row>
     <row r="45">
@@ -7719,16 +7719,16 @@
         <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
-        <v>104.7703422119204</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L45" t="n">
         <v>706.6672186254962</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>65.27748614708518</v>
+        <v>65.27748614708537</v>
       </c>
       <c r="C46" t="n">
-        <v>57.8409698015006</v>
+        <v>57.8409698015007</v>
       </c>
       <c r="D46" t="n">
-        <v>57.8409698015006</v>
+        <v>57.8409698015007</v>
       </c>
       <c r="E46" t="n">
-        <v>57.8409698015006</v>
+        <v>57.8409698015007</v>
       </c>
       <c r="F46" t="n">
-        <v>57.8409698015006</v>
+        <v>57.8409698015007</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672914</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L46" t="n">
         <v>185.3119415069887</v>
       </c>
       <c r="M46" t="n">
-        <v>405.8010414442153</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N46" t="n">
-        <v>524.2233831938157</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O46" t="n">
-        <v>622.6870296895054</v>
+        <v>622.6870296895064</v>
       </c>
       <c r="P46" t="n">
-        <v>685.6555134176432</v>
+        <v>685.6555134176442</v>
       </c>
       <c r="Q46" t="n">
-        <v>685.6555134176432</v>
+        <v>685.6555134176442</v>
       </c>
       <c r="R46" t="n">
-        <v>685.6555134176432</v>
+        <v>685.6555134176442</v>
       </c>
       <c r="S46" t="n">
-        <v>634.1252040140658</v>
+        <v>634.1252040140668</v>
       </c>
       <c r="T46" t="n">
-        <v>563.1257040224798</v>
+        <v>563.1257040224806</v>
       </c>
       <c r="U46" t="n">
-        <v>438.1149177043148</v>
+        <v>438.1149177043155</v>
       </c>
       <c r="V46" t="n">
-        <v>339.5590664554726</v>
+        <v>339.5590664554731</v>
       </c>
       <c r="W46" t="n">
-        <v>215.5821181656068</v>
+        <v>215.5821181656073</v>
       </c>
       <c r="X46" t="n">
-        <v>146.5091072537177</v>
+        <v>146.509107253718</v>
       </c>
       <c r="Y46" t="n">
-        <v>86.65340163872989</v>
+        <v>86.65340163873016</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
         <v>421.3890363425141</v>
@@ -7991,13 +7991,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>495.0402356415689</v>
+        <v>483.581942100235</v>
       </c>
       <c r="P2" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>241.8908817774195</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8058,13 +8058,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>299.254358705092</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
         <v>605.0346779723779</v>
@@ -8073,7 +8073,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>365.9634164256848</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8216,7 +8216,7 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
-        <v>387.2704302620575</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8231,7 +8231,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>418.3383206229274</v>
+        <v>384.2197145424707</v>
       </c>
       <c r="Q5" t="n">
         <v>276.0094878578761</v>
@@ -8292,10 +8292,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>201.9955114453961</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
@@ -8304,10 +8304,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>605.0346779723779</v>
+        <v>127.9265891286492</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
         <v>414.0015992319183</v>
@@ -8529,13 +8529,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
@@ -8547,7 +8547,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>196.5733747639883</v>
       </c>
       <c r="Q9" t="n">
         <v>273.1004740566038</v>
@@ -8781,13 +8781,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>436.1109804586609</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>197.1904394555157</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>547.2350520455324</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>258.0532137313808</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9258,10 +9258,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>398.9543389066957</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>197.1904394555162</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>547.2350520455324</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>258.0532137313808</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9720,7 +9720,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>406.1824142934113</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>197.1904394555157</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466193</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566032</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>277.4076971867455</v>
+        <v>27.96412523625262</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>90.62296777006273</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>151.2330102342388</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>253.6400895827076</v>
       </c>
       <c r="H14" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="15">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.2088036460287</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24455,13 +24455,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>103.8047687906563</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.65886129508323</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24683,10 +24683,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>103.8047687906567</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>64.20210532427203</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -25637,16 +25637,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>83.57109722473882</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>73.0397290822528</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>10.53136814248415</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>73.03972908225435</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>83.57109722473771</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>10.53136814248427</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>657970.3269190743</v>
+        <v>657970.3269190742</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>657970.3269190742</v>
+        <v>657970.3269190743</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>715578.7810244486</v>
+        <v>715578.7810244485</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>633289.8499076997</v>
+        <v>633289.8499077</v>
       </c>
       <c r="C2" t="n">
-        <v>633289.8499077</v>
+        <v>633289.8499077001</v>
       </c>
       <c r="D2" t="n">
+        <v>633289.8499077001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>576492.9885889787</v>
+      </c>
+      <c r="F2" t="n">
+        <v>576492.9885889788</v>
+      </c>
+      <c r="G2" t="n">
         <v>633289.8499076999</v>
       </c>
-      <c r="E2" t="n">
-        <v>576492.9885889789</v>
-      </c>
-      <c r="F2" t="n">
-        <v>576492.9885889789</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>633289.8499076995</v>
+      </c>
+      <c r="I2" t="n">
         <v>633289.8499076996</v>
       </c>
-      <c r="H2" t="n">
-        <v>633289.8499076994</v>
-      </c>
-      <c r="I2" t="n">
-        <v>633289.8499076997</v>
-      </c>
       <c r="J2" t="n">
-        <v>612284.1403510167</v>
+        <v>612284.1403510177</v>
       </c>
       <c r="K2" t="n">
-        <v>612284.1403510184</v>
+        <v>612284.1403510176</v>
       </c>
       <c r="L2" t="n">
-        <v>633289.8499077006</v>
+        <v>633289.8499077008</v>
       </c>
       <c r="M2" t="n">
         <v>633289.8499076988</v>
       </c>
       <c r="N2" t="n">
-        <v>633289.8499076988</v>
+        <v>633289.8499076989</v>
       </c>
       <c r="O2" t="n">
-        <v>627801.7359529518</v>
+        <v>627801.735952951</v>
       </c>
       <c r="P2" t="n">
-        <v>627801.7359529518</v>
+        <v>627801.735952951</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>8381.935660246432</v>
       </c>
       <c r="E3" t="n">
-        <v>118895.2819258112</v>
+        <v>118895.2819258113</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46127.08903606656</v>
+        <v>46127.08903606657</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>211744.3539054199</v>
       </c>
       <c r="K3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68771.66874756756</v>
+        <v>68771.6687475676</v>
       </c>
       <c r="M3" t="n">
         <v>19514.53999589753</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40159.91818518109</v>
+        <v>40159.91818518101</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>196979.4332140584</v>
       </c>
       <c r="E4" t="n">
-        <v>149881.7318113425</v>
+        <v>149881.7318113426</v>
       </c>
       <c r="F4" t="n">
         <v>149881.7318113426</v>
@@ -26436,10 +26436,10 @@
         <v>188927.0983995263</v>
       </c>
       <c r="I4" t="n">
-        <v>188927.0983995263</v>
+        <v>188927.0983995264</v>
       </c>
       <c r="J4" t="n">
-        <v>173497.3887114745</v>
+        <v>173497.3887114746</v>
       </c>
       <c r="K4" t="n">
         <v>173497.3887114746</v>
@@ -26451,10 +26451,10 @@
         <v>187302.9854962235</v>
       </c>
       <c r="N4" t="n">
-        <v>187302.9854962235</v>
+        <v>187302.9854962236</v>
       </c>
       <c r="O4" t="n">
-        <v>183523.6372490987</v>
+        <v>183523.6372490986</v>
       </c>
       <c r="P4" t="n">
         <v>183523.6372490986</v>
@@ -26476,10 +26476,10 @@
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>47206.86677207316</v>
+        <v>47206.86677207317</v>
       </c>
       <c r="F5" t="n">
-        <v>47206.86677207316</v>
+        <v>47206.86677207317</v>
       </c>
       <c r="G5" t="n">
         <v>52054.18958228952</v>
@@ -26488,16 +26488,16 @@
         <v>52054.18958228952</v>
       </c>
       <c r="I5" t="n">
-        <v>52054.18958228952</v>
+        <v>52054.18958228955</v>
       </c>
       <c r="J5" t="n">
-        <v>55745.5514434544</v>
+        <v>55745.55144345442</v>
       </c>
       <c r="K5" t="n">
-        <v>55745.5514434544</v>
+        <v>55745.55144345442</v>
       </c>
       <c r="L5" t="n">
-        <v>56484.57861505463</v>
+        <v>56484.57861505464</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
@@ -26506,7 +26506,7 @@
         <v>52802.81689264637</v>
       </c>
       <c r="O5" t="n">
-        <v>52334.4343211406</v>
+        <v>52334.43432114059</v>
       </c>
       <c r="P5" t="n">
         <v>52334.4343211406</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>198440.1748379734</v>
+        <v>198440.1748379736</v>
       </c>
       <c r="C6" t="n">
-        <v>365438.5130040772</v>
+        <v>365438.5130040774</v>
       </c>
       <c r="D6" t="n">
-        <v>362362.4463964836</v>
+        <v>362362.4463964839</v>
       </c>
       <c r="E6" t="n">
-        <v>260509.108079752</v>
+        <v>260336.9963787858</v>
       </c>
       <c r="F6" t="n">
-        <v>379404.3900055632</v>
+        <v>379232.2783045972</v>
       </c>
       <c r="G6" t="n">
-        <v>346181.4728898172</v>
+        <v>346181.4728898174</v>
       </c>
       <c r="H6" t="n">
-        <v>392308.5619258835</v>
+        <v>392308.5619258836</v>
       </c>
       <c r="I6" t="n">
-        <v>392308.5619258839</v>
+        <v>392308.5619258837</v>
       </c>
       <c r="J6" t="n">
-        <v>171296.8462906678</v>
+        <v>171233.1926253454</v>
       </c>
       <c r="K6" t="n">
-        <v>383041.2001960894</v>
+        <v>382977.5465307653</v>
       </c>
       <c r="L6" t="n">
-        <v>320255.6037612025</v>
+        <v>320255.6037612027</v>
       </c>
       <c r="M6" t="n">
-        <v>373669.5075229313</v>
+        <v>373669.5075229314</v>
       </c>
       <c r="N6" t="n">
-        <v>393184.0475188289</v>
+        <v>393184.047518829</v>
       </c>
       <c r="O6" t="n">
-        <v>351783.7461975315</v>
+        <v>351767.1155491832</v>
       </c>
       <c r="P6" t="n">
-        <v>391943.6643827126</v>
+        <v>391927.0337343641</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="O2" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="P2" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
     </row>
     <row r="3">
@@ -26796,31 +26796,31 @@
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>619.5872728283481</v>
+        <v>619.5872728283482</v>
       </c>
       <c r="F4" t="n">
-        <v>619.5872728283481</v>
+        <v>619.5872728283482</v>
       </c>
       <c r="G4" t="n">
-        <v>619.5872728283481</v>
+        <v>619.5872728283482</v>
       </c>
       <c r="H4" t="n">
-        <v>619.5872728283481</v>
+        <v>619.5872728283482</v>
       </c>
       <c r="I4" t="n">
-        <v>619.5872728283481</v>
+        <v>619.5872728283485</v>
       </c>
       <c r="J4" t="n">
-        <v>760.0261654497501</v>
+        <v>760.0261654497504</v>
       </c>
       <c r="K4" t="n">
-        <v>760.0261654497501</v>
+        <v>760.0261654497504</v>
       </c>
       <c r="L4" t="n">
-        <v>733.0425010894295</v>
+        <v>733.0425010894296</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="N4" t="n">
         <v>638.7584295260717</v>
@@ -26829,7 +26829,7 @@
         <v>638.7584295260716</v>
       </c>
       <c r="P4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.6588612950832</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>55.77130421312549</v>
+        <v>55.77130421312552</v>
       </c>
       <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.96458593445945</v>
+        <v>85.96458593445951</v>
       </c>
       <c r="M2" t="n">
         <v>24.39317499487191</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.19989773147637</v>
+        <v>50.19989773147626</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>26.98366436032074</v>
       </c>
       <c r="E4" t="n">
-        <v>94.28407156335777</v>
+        <v>94.28407156335788</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.6588612950832</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>55.77130421312549</v>
+        <v>55.77130421312552</v>
       </c>
       <c r="P2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>26.98366436032074</v>
       </c>
       <c r="M4" t="n">
-        <v>94.28407156335777</v>
+        <v>94.28407156335788</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>89.2518631577052</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>30.71574629409207</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>17.29505749447277</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>68.06777179519511</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27518,10 +27518,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>25.55531625962761</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>69.37065939925839</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -27597,7 +27597,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27619,22 +27619,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>156.2162011816349</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -27673,16 +27673,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>165.6191793262299</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>162.3245746415757</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>40.19256490148896</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -27792,10 +27792,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>127.7171743185718</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>14.6841360714634</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>264.0806145921396</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>376.7827392248478</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27938,19 +27938,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>101.5979585925484</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>24.68645909039981</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28014,16 +28014,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>93.47784511364529</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28062,16 +28062,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>271.7216854425707</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28120,22 +28120,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>9.338070422797045</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.4301655082087</v>
+        <v>33.03633229190174</v>
       </c>
       <c r="R11" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>113.4301655082087</v>
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>21.26645374118982</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>29.77848998202569</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28351,28 +28351,28 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>33.03633229190132</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>9.338070422797244</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
       <c r="R14" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>113.4301655082087</v>
@@ -28418,7 +28418,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>88.96491619802933</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -28451,10 +28451,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>29.77848998202597</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28588,16 +28588,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>120.8806788490489</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>171.0890268032919</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>120.880678849049</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -28652,13 +28652,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>21.26645374118981</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>21.26645374119019</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>67.69846245683961</v>
@@ -28737,7 +28737,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H19" t="n">
-        <v>161.0282291087962</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I19" t="n">
         <v>142.7610139533483</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>3.24931034027739</v>
       </c>
       <c r="Q19" t="n">
         <v>38.15196793284785</v>
@@ -28825,13 +28825,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>31.14877520994398</v>
       </c>
       <c r="L20" t="n">
-        <v>120.880678849049</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28846,7 +28846,7 @@
         <v>171.0890268032919</v>
       </c>
       <c r="R20" t="n">
-        <v>171.0890268032919</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>171.0890268032919</v>
@@ -28883,7 +28883,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>21.26645374118988</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>29.778489982026</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28986,13 +28986,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>3.249310340277347</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.249310340277432</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29071,19 +29071,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>171.0890268032919</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>31.14877520994531</v>
       </c>
       <c r="R23" t="n">
-        <v>120.8806788490486</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>171.0890268032919</v>
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>88.96491619802804</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29165,7 +29165,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>88.96491619802985</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>3.249310340277376</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>41.40127827312521</v>
       </c>
       <c r="R25" t="n">
         <v>148.0265635717656</v>
@@ -29302,7 +29302,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L26" t="n">
-        <v>111.6986801837969</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M26" t="n">
         <v>113.4301655082087</v>
@@ -29314,7 +29314,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="P26" t="n">
-        <v>113.4301655082087</v>
+        <v>111.6986801837978</v>
       </c>
       <c r="Q26" t="n">
         <v>113.4301655082087</v>
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>14.56549128550353</v>
+        <v>14.56549128550355</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29554,10 +29554,10 @@
         <v>113.4301655082087</v>
       </c>
       <c r="Q29" t="n">
-        <v>111.6986801837967</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R29" t="n">
-        <v>113.4301655082087</v>
+        <v>111.6986801837976</v>
       </c>
       <c r="S29" t="n">
         <v>113.4301655082087</v>
@@ -29606,7 +29606,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>14.56549128550355</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29639,7 +29639,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>14.56549128550353</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -29776,13 +29776,13 @@
         <v>141.735890147585</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>61.88025498773806</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>61.88025498773783</v>
+        <v>141.735890147585</v>
       </c>
       <c r="O32" t="n">
         <v>141.735890147585</v>
@@ -29791,7 +29791,7 @@
         <v>141.735890147585</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.735890147585</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>141.735890147585</v>
@@ -29843,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>14.56549128550338</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -29876,7 +29876,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>14.56549128550353</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -29937,19 +29937,19 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>102.4257494917428</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>64.27378155889433</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>141.735890147585</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>141.735890147585</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>141.735890147585</v>
@@ -30007,31 +30007,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>116.9787331327005</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K35" t="n">
+      <c r="P35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L35" t="n">
-        <v>40.58157162934941</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>152.6650248714419</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30165,7 +30165,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1422830299223</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>45.56176619902598</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30247,7 +30247,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>116.9787331327011</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30256,19 +30256,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>40.58157162934947</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30390,7 +30390,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
@@ -30399,7 +30399,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J40" t="n">
         <v>59.456666199969</v>
@@ -30417,16 +30417,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>22.19371500991728</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.73508319210976</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S40" t="n">
         <v>166.1290651424569</v>
@@ -30457,34 +30457,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="C41" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="D41" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="E41" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="F41" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="G41" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="H41" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="I41" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="K41" t="n">
-        <v>128.1215460959992</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30493,40 +30493,40 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>160.5576586608078</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>160.5576586608078</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>128.1215460959993</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="R41" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="T41" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="U41" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="V41" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="W41" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="X41" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="Y41" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30599,7 +30599,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>14.56549128550327</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="C43" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30627,10 +30627,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>157.7642276562129</v>
       </c>
       <c r="G43" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="H43" t="n">
         <v>157.7789187685189</v>
@@ -30639,13 +30639,13 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
-        <v>160.5576586608078</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2.429910377165982</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>134.8744915391216</v>
       </c>
       <c r="R43" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="T43" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="U43" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="V43" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="W43" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="X43" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="Y43" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
     </row>
     <row r="44">
@@ -30694,43 +30694,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="C44" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="D44" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="E44" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="F44" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="G44" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="H44" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="I44" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="K44" t="n">
-        <v>160.5576586608078</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>160.5576586608078</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="T44" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="U44" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="V44" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="W44" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="X44" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="Y44" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
     </row>
     <row r="45">
@@ -30791,10 +30791,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>14.56549128550327</v>
       </c>
       <c r="I45" t="n">
-        <v>14.56549128550325</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="C46" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="H46" t="n">
         <v>157.7789187685189</v>
@@ -30885,13 +30885,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>103.530902838005</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>103.530902838006</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="T46" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="U46" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="V46" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="W46" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="X46" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
       <c r="Y46" t="n">
-        <v>160.5576586608078</v>
+        <v>160.5576586608077</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
         <v>242.5660323684674</v>
@@ -34711,13 +34711,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>308.0854388614484</v>
+        <v>296.6271453201145</v>
       </c>
       <c r="P2" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>61.26750875442929</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>183.7704561434522</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>498.3195369046696</v>
@@ -34793,7 +34793,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>257.1092104015415</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>208.4474262880108</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -34951,7 +34951,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>230.4615115717709</v>
+        <v>196.3429054913142</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>89.99934227872946</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
         <v>369.5170153233491</v>
@@ -35024,10 +35024,10 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>498.3195369046696</v>
+        <v>21.2114480609409</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
         <v>305.147393207775</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
@@ -35267,7 +35267,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>87.71916873984496</v>
       </c>
       <c r="Q9" t="n">
         <v>159.3652826117113</v>
@@ -35416,22 +35416,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
-        <v>406.5493494663202</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>495.583053071558</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>421.5156043696572</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>343.8916770799797</v>
       </c>
       <c r="Q11" t="n">
-        <v>208.8162803430946</v>
+        <v>128.4224471267876</v>
       </c>
       <c r="R11" t="n">
-        <v>23.69826186910356</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
-        <v>396.1615664486372</v>
+        <v>320.2515318475499</v>
       </c>
       <c r="P12" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>83.45524801062321</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K13" t="n">
         <v>147.373789492697</v>
@@ -35586,7 +35586,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>186.155967803972</v>
       </c>
       <c r="K14" t="n">
-        <v>355.9961978766762</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N14" t="n">
-        <v>495.583053071558</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>308.0854388614484</v>
+        <v>341.1217711533498</v>
       </c>
       <c r="P14" t="n">
-        <v>239.7995819945682</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488586</v>
+        <v>208.8162803430946</v>
       </c>
       <c r="R14" t="n">
-        <v>23.69826186910356</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
         <v>231.8086389496855</v>
@@ -35735,7 +35735,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
-        <v>516.4299455789112</v>
+        <v>440.5199109778241</v>
       </c>
       <c r="O15" t="n">
         <v>396.1615664486372</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>144.3180222864883</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K16" t="n">
         <v>147.373789492697</v>
@@ -35823,7 +35823,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,16 +35884,16 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
-        <v>363.4467112175163</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>522.4883935557629</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>397.2112790435232</v>
+        <v>568.3003058468151</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>503.0335664123983</v>
       </c>
       <c r="O17" t="n">
         <v>308.0854388614484</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35978,10 +35978,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>290.1001328825524</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117113</v>
+        <v>83.45524801062366</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36033,7 +36033,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.249310340277335</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -36057,7 +36057,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P19" t="n">
-        <v>63.604529018321</v>
+        <v>66.85383935859839</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5660323684674</v>
+        <v>273.7148075784114</v>
       </c>
       <c r="L20" t="n">
-        <v>472.28004560152</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>397.2112790435232</v>
+        <v>568.3003058468151</v>
       </c>
       <c r="N20" t="n">
         <v>382.1528875633492</v>
@@ -36142,7 +36142,7 @@
         <v>266.4751416381778</v>
       </c>
       <c r="R20" t="n">
-        <v>81.35712316418676</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
         <v>231.8086389496855</v>
@@ -36209,7 +36209,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
-        <v>516.4299455789112</v>
+        <v>440.5199109778241</v>
       </c>
       <c r="O21" t="n">
         <v>396.1615664486372</v>
@@ -36218,7 +36218,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>144.3180222864883</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,13 +36282,13 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L22" t="n">
-        <v>104.872622865792</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M22" t="n">
         <v>119.1853597248502</v>
       </c>
       <c r="N22" t="n">
-        <v>119.6185270197983</v>
+        <v>122.8678373600758</v>
       </c>
       <c r="O22" t="n">
         <v>99.45822878352493</v>
@@ -36367,19 +36367,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>553.2419143666411</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0854388614484</v>
+        <v>479.1744656647404</v>
       </c>
       <c r="P23" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>126.5348900448312</v>
       </c>
       <c r="R23" t="n">
-        <v>31.14877520994345</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>369.5170153233491</v>
+        <v>293.6069807222635</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
@@ -36455,7 +36455,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>83.45524801062321</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36525,7 +36525,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N25" t="n">
-        <v>122.8678373600757</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O25" t="n">
         <v>99.45822878352493</v>
@@ -36534,7 +36534,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>3.249310340277364</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>355.9961978766761</v>
       </c>
       <c r="L26" t="n">
-        <v>463.0980469362678</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M26" t="n">
         <v>510.6414445517319</v>
@@ -36607,16 +36607,16 @@
         <v>495.583053071558</v>
       </c>
       <c r="O26" t="n">
-        <v>421.5156043696571</v>
+        <v>421.5156043696572</v>
       </c>
       <c r="P26" t="n">
-        <v>343.8916770799797</v>
+        <v>342.1601917555687</v>
       </c>
       <c r="Q26" t="n">
         <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910353</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823972</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K28" t="n">
         <v>147.373789492697</v>
@@ -36759,19 +36759,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M28" t="n">
-        <v>232.6155252330589</v>
+        <v>232.615525233059</v>
       </c>
       <c r="N28" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O28" t="n">
-        <v>212.8883942917336</v>
+        <v>212.8883942917337</v>
       </c>
       <c r="P28" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536086</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K29" t="n">
-        <v>355.9961978766762</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L29" t="n">
         <v>464.8295322606797</v>
@@ -36850,10 +36850,10 @@
         <v>343.8916770799797</v>
       </c>
       <c r="Q29" t="n">
-        <v>207.0847950186826</v>
+        <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910356</v>
+        <v>21.96677654469246</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K31" t="n">
         <v>147.373789492697</v>
@@ -37008,7 +37008,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>214.4616924433483</v>
       </c>
       <c r="K32" t="n">
-        <v>384.3019225160524</v>
+        <v>384.3019225160525</v>
       </c>
       <c r="L32" t="n">
-        <v>351.3993667524709</v>
+        <v>413.279621740209</v>
       </c>
       <c r="M32" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N32" t="n">
-        <v>444.0331425510871</v>
+        <v>523.8887777109343</v>
       </c>
       <c r="O32" t="n">
         <v>449.8213290090334</v>
       </c>
       <c r="P32" t="n">
-        <v>372.1974017193559</v>
+        <v>372.197401719356</v>
       </c>
       <c r="Q32" t="n">
-        <v>237.1220049824709</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R32" t="n">
-        <v>52.00398650847981</v>
+        <v>52.00398650847984</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>221.611109216593</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>119.6185270197983</v>
+        <v>183.8923085786927</v>
       </c>
       <c r="O34" t="n">
-        <v>99.45822878352493</v>
+        <v>241.19411893111</v>
       </c>
       <c r="P34" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.5839222147371</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>408.6950975109244</v>
+        <v>359.5447655011679</v>
       </c>
       <c r="L35" t="n">
-        <v>391.9809383818204</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
@@ -37318,16 +37318,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335173</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.68561682995331</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>33.9436239844883</v>
@@ -37470,7 +37470,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>119.1853597248502</v>
+        <v>164.7471259238762</v>
       </c>
       <c r="N37" t="n">
         <v>119.6185270197983</v>
@@ -37543,7 +37543,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>242.5660323684674</v>
+        <v>359.5447655011686</v>
       </c>
       <c r="L38" t="n">
         <v>351.3993667524709</v>
@@ -37552,19 +37552,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>422.7344591926987</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O38" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
         <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335173</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N39" t="n">
-        <v>516.4299455789112</v>
+        <v>516.4299455789111</v>
       </c>
       <c r="O39" t="n">
         <v>396.1615664486372</v>
@@ -37640,7 +37640,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.3652826117107</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37686,7 +37686,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37713,16 +37713,16 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O40" t="n">
-        <v>99.45822878352493</v>
+        <v>121.6519437934422</v>
       </c>
       <c r="P40" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.5831152592619</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.10250157069135</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>72.72580229576329</v>
+        <v>233.283460956571</v>
       </c>
       <c r="K41" t="n">
-        <v>370.6875784644666</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
         <v>351.3993667524709</v>
@@ -37789,16 +37789,16 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>542.710546224157</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>468.6430975222562</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4615115717709</v>
+        <v>358.5830576677703</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488586</v>
+        <v>255.9437734956935</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>6.80837923173228</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.1009924608388</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
-        <v>104.0532229026806</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
         <v>119.1853597248502</v>
@@ -37956,7 +37956,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>96.72252360627373</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.72580229576329</v>
+        <v>233.283460956571</v>
       </c>
       <c r="K44" t="n">
-        <v>403.1236910292752</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>351.3993667524709</v>
+        <v>511.9570254132786</v>
       </c>
       <c r="M44" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>542.710546224157</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
         <v>308.0854388614484</v>
@@ -38181,13 +38181,13 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
-        <v>222.7162625628552</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
         <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>99.45822878352493</v>
+        <v>202.9891316215309</v>
       </c>
       <c r="P46" t="n">
         <v>63.604529018321</v>
